--- a/Code/Results/Cases/Case_5_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.547280322004553</v>
+        <v>2.410177208411312</v>
       </c>
       <c r="C2">
-        <v>1.105577719449343</v>
+        <v>0.2707256035035357</v>
       </c>
       <c r="D2">
-        <v>0.01379121546690243</v>
+        <v>0.05682364064669088</v>
       </c>
       <c r="E2">
-        <v>0.07298028284290581</v>
+        <v>0.0467232446994359</v>
       </c>
       <c r="F2">
-        <v>2.618150160502751</v>
+        <v>2.212288549155929</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,39 +442,45 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.323222449956518</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0711098525949474</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5331392171271077</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2931587729166836</v>
       </c>
       <c r="M2">
-        <v>0.8629395522482071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.805231901111682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.194055904979962</v>
+        <v>2.088188840757937</v>
       </c>
       <c r="C3">
-        <v>0.9500179142211493</v>
+        <v>0.2417988936051358</v>
       </c>
       <c r="D3">
-        <v>0.0137350974821544</v>
+        <v>0.05792348794453517</v>
       </c>
       <c r="E3">
-        <v>0.06464395274051071</v>
+        <v>0.04465968659899211</v>
       </c>
       <c r="F3">
-        <v>2.330636963374118</v>
+        <v>2.009430705684252</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,39 +489,45 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.201690171683623</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06377856308489882</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4600055333550372</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.257263578010452</v>
       </c>
       <c r="M3">
-        <v>0.7432492100028014</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.650643819154439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.980450032056297</v>
+        <v>1.893568254163654</v>
       </c>
       <c r="C4">
-        <v>0.8562733622340204</v>
+        <v>0.2241320033216851</v>
       </c>
       <c r="D4">
-        <v>0.0137408586616008</v>
+        <v>0.05865025624168041</v>
       </c>
       <c r="E4">
-        <v>0.05968174106030943</v>
+        <v>0.0434595071031918</v>
       </c>
       <c r="F4">
-        <v>2.160097964514861</v>
+        <v>1.888969888957988</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,39 +536,45 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.130164576478521</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0594479650652211</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4157039833381546</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2356844078189653</v>
       </c>
       <c r="M4">
-        <v>0.6711288441633698</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.559087450814189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.894095758991369</v>
+        <v>1.814932585653708</v>
       </c>
       <c r="C5">
-        <v>0.8184470080380493</v>
+        <v>0.21694809283089</v>
       </c>
       <c r="D5">
-        <v>0.01375216320009898</v>
+        <v>0.05895851070395963</v>
       </c>
       <c r="E5">
-        <v>0.05769430975497158</v>
+        <v>0.04298607039393154</v>
       </c>
       <c r="F5">
-        <v>2.091934696977461</v>
+        <v>1.840809542947014</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -559,39 +583,45 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.101710738822476</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05772124774105691</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3977799568533129</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2269935123103721</v>
       </c>
       <c r="M5">
-        <v>0.642033155566736</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.52254118139065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.879794871870985</v>
+        <v>1.80191309130899</v>
       </c>
       <c r="C6">
-        <v>0.8121867288082285</v>
+        <v>0.2157559195336347</v>
       </c>
       <c r="D6">
-        <v>0.01375454980276736</v>
+        <v>0.05901040304250671</v>
       </c>
       <c r="E6">
-        <v>0.05736626833299496</v>
+        <v>0.04290836919526875</v>
       </c>
       <c r="F6">
-        <v>2.080691929130765</v>
+        <v>1.832865818692881</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,39 +630,45 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.09702554369899</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05743668976390737</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.394810871498585</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2255562427857996</v>
       </c>
       <c r="M6">
-        <v>0.6372182058798614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.516516563849891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.979282791765854</v>
+        <v>1.892505145390658</v>
       </c>
       <c r="C7">
-        <v>0.855761790377386</v>
+        <v>0.2240350661851096</v>
       </c>
       <c r="D7">
-        <v>0.01374097629122772</v>
+        <v>0.05865436557892423</v>
       </c>
       <c r="E7">
-        <v>0.05965480309400206</v>
+        <v>0.0434530602944676</v>
       </c>
       <c r="F7">
-        <v>2.159173513811851</v>
+        <v>1.888316750592864</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -641,39 +677,45 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.129778137114513</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05942453011337889</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4154617586743115</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2355667996323234</v>
       </c>
       <c r="M7">
-        <v>0.6707353226492998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.558591585977268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.424725215324486</v>
+        <v>2.29845242189009</v>
       </c>
       <c r="C8">
-        <v>1.051529156638367</v>
+        <v>0.2607269370606247</v>
       </c>
       <c r="D8">
-        <v>0.0137627822484454</v>
+        <v>0.05719165126738801</v>
       </c>
       <c r="E8">
-        <v>0.07007055959964958</v>
+        <v>0.04599712440254855</v>
       </c>
       <c r="F8">
-        <v>2.517660725250522</v>
+        <v>2.141429754219232</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -682,39 +724,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.280621851697376</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06854344895931774</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.507783519717627</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2806783134619906</v>
       </c>
       <c r="M8">
-        <v>0.8213539481576504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.751181091406139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.330957610652945</v>
+        <v>3.12403539280325</v>
       </c>
       <c r="C9">
-        <v>1.453037003093925</v>
+        <v>0.3338421811275794</v>
       </c>
       <c r="D9">
-        <v>0.01418433306249867</v>
+        <v>0.05477447044289718</v>
       </c>
       <c r="E9">
-        <v>0.09197003983595664</v>
+        <v>0.05157427525076486</v>
       </c>
       <c r="F9">
-        <v>3.277100118225405</v>
+        <v>2.675316065467172</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -723,39 +771,45 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.60530121841289</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08803163302145123</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6947330582494118</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3734483619986548</v>
       </c>
       <c r="M9">
-        <v>1.130166826384432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.159581525015383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.027517497225006</v>
+        <v>3.75652886715568</v>
       </c>
       <c r="C10">
-        <v>1.764494423567555</v>
+        <v>0.3889247348954257</v>
       </c>
       <c r="D10">
-        <v>0.0148222947491341</v>
+        <v>0.05334178318688387</v>
       </c>
       <c r="E10">
-        <v>0.1093317676425798</v>
+        <v>0.05611996437368205</v>
       </c>
       <c r="F10">
-        <v>3.883645525350687</v>
+        <v>3.098292896356867</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -764,39 +818,45 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.868323641101767</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1037293504038139</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8374481285203075</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4452489733128573</v>
       </c>
       <c r="M10">
-        <v>1.369388064860885</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.484694479843512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.353964333372744</v>
+        <v>4.051942399612471</v>
       </c>
       <c r="C11">
-        <v>1.91130039642627</v>
+        <v>0.4144505790405049</v>
       </c>
       <c r="D11">
-        <v>0.01521059730611185</v>
+        <v>0.05278265645755909</v>
       </c>
       <c r="E11">
-        <v>0.117605762654776</v>
+        <v>0.058308031241733</v>
       </c>
       <c r="F11">
-        <v>4.17390493498155</v>
+        <v>3.299401701142898</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -805,39 +865,45 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.995126130176288</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1112773308262867</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.9039919437275188</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4789648431586073</v>
       </c>
       <c r="M11">
-        <v>1.482000216870532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.639661802179674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.47924552319563</v>
+        <v>4.165109307129342</v>
       </c>
       <c r="C12">
-        <v>1.967782520068738</v>
+        <v>0.4242004874180338</v>
       </c>
       <c r="D12">
-        <v>0.01537449451894801</v>
+        <v>0.05258605035021802</v>
       </c>
       <c r="E12">
-        <v>0.1208028668302887</v>
+        <v>0.05915605322733697</v>
       </c>
       <c r="F12">
-        <v>4.286256210052528</v>
+        <v>3.376999589976634</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -846,39 +912,45 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.044353584453603</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1142047653955629</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9294672089163356</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4919086152173548</v>
       </c>
       <c r="M12">
-        <v>1.525298401016656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.699516569288136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.452184971233862</v>
+        <v>4.140675587927944</v>
       </c>
       <c r="C13">
-        <v>1.955575788073645</v>
+        <v>0.422096655106202</v>
       </c>
       <c r="D13">
-        <v>0.01533839734435816</v>
+        <v>0.05262768861964418</v>
       </c>
       <c r="E13">
-        <v>0.1201112963644846</v>
+        <v>0.0589725141994073</v>
       </c>
       <c r="F13">
-        <v>4.261944376679367</v>
+        <v>3.360220019154866</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -887,39 +959,45 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.033694541534899</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1135710247424022</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.9239676024480445</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4891126711478648</v>
       </c>
       <c r="M13">
-        <v>1.515942319788493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.686570960860308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.364236164107581</v>
+        <v>4.061225445309333</v>
       </c>
       <c r="C14">
-        <v>1.915928410374988</v>
+        <v>0.4152509273810097</v>
       </c>
       <c r="D14">
-        <v>0.01522372583849219</v>
+        <v>0.05276616712380644</v>
       </c>
       <c r="E14">
-        <v>0.1178674471803092</v>
+        <v>0.05837739539319742</v>
       </c>
       <c r="F14">
-        <v>4.183096952170018</v>
+        <v>3.305755629784045</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -928,39 +1006,45 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.999150704671123</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1115167189315045</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.9060819976039625</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4800260479905205</v>
       </c>
       <c r="M14">
-        <v>1.485548577869551</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.644561640403381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.310590798730743</v>
+        <v>4.012735473695045</v>
       </c>
       <c r="C15">
-        <v>1.891764121206279</v>
+        <v>0.4110691656382244</v>
       </c>
       <c r="D15">
-        <v>0.01515577161077175</v>
+        <v>0.05285301701879064</v>
       </c>
       <c r="E15">
-        <v>0.1165016684450606</v>
+        <v>0.05801546948133307</v>
       </c>
       <c r="F15">
-        <v>4.135130055921337</v>
+        <v>3.272588580993641</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -969,39 +1053,45 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.978155088457427</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1102677521780357</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8951639489966396</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4744839804095591</v>
       </c>
       <c r="M15">
-        <v>1.467020311182836</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.618987295845471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.006399548357933</v>
+        <v>3.737393684239407</v>
       </c>
       <c r="C16">
-        <v>1.755015923821077</v>
+        <v>0.3872673439269363</v>
       </c>
       <c r="D16">
-        <v>0.01479911596564776</v>
+        <v>0.05338033517906382</v>
       </c>
       <c r="E16">
-        <v>0.1087994164741168</v>
+        <v>0.05597956686854388</v>
       </c>
       <c r="F16">
-        <v>3.864995593575543</v>
+        <v>3.085340785445027</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1010,39 +1100,45 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.860195599332116</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1032451341355802</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.833135548548853</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4430688099760118</v>
       </c>
       <c r="M16">
-        <v>1.362113812263942</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.474722111998275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.822430545502471</v>
+        <v>3.570580473709299</v>
       </c>
       <c r="C17">
-        <v>1.672538744348515</v>
+        <v>0.3727967058797645</v>
       </c>
       <c r="D17">
-        <v>0.0146072478129895</v>
+        <v>0.0537287485642679</v>
       </c>
       <c r="E17">
-        <v>0.1041771832363558</v>
+        <v>0.05476285253973501</v>
       </c>
       <c r="F17">
-        <v>3.703197672069933</v>
+        <v>2.972826347678676</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1051,39 +1147,45 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.78978359423067</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09904828711297142</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7955276605324997</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.42408311689735</v>
       </c>
       <c r="M17">
-        <v>1.298800166677793</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.388135595908153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.717498456502597</v>
+        <v>3.475344631656299</v>
       </c>
       <c r="C18">
-        <v>1.625571683897022</v>
+        <v>0.3645165670652375</v>
       </c>
       <c r="D18">
-        <v>0.01450593206290662</v>
+        <v>0.05393774064947365</v>
       </c>
       <c r="E18">
-        <v>0.1015533206654915</v>
+        <v>0.0540742013350517</v>
       </c>
       <c r="F18">
-        <v>3.611459833794527</v>
+        <v>2.90891654231902</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,39 +1194,45 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.749945265185275</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09667195232364278</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7740463653503014</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4132605404090128</v>
       </c>
       <c r="M18">
-        <v>1.262732995868134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.338988577723015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.682113764290079</v>
+        <v>3.443215949503156</v>
       </c>
       <c r="C19">
-        <v>1.609746173950441</v>
+        <v>0.3617199726557061</v>
       </c>
       <c r="D19">
-        <v>0.01447310531267121</v>
+        <v>0.05400992712474562</v>
       </c>
       <c r="E19">
-        <v>0.1006706143734064</v>
+        <v>0.05384289278388188</v>
       </c>
       <c r="F19">
-        <v>3.580615918158912</v>
+        <v>2.887410668230757</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1133,39 +1241,45 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.736565105984468</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09587352330828836</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7667976607100115</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4096122403529421</v>
       </c>
       <c r="M19">
-        <v>1.25057818146233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.322456374499481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.841921150088069</v>
+        <v>3.588263139725882</v>
       </c>
       <c r="C20">
-        <v>1.68126873740664</v>
+        <v>0.3743325687411669</v>
       </c>
       <c r="D20">
-        <v>0.01462671837018092</v>
+        <v>0.0536907577093082</v>
       </c>
       <c r="E20">
-        <v>0.1046655676618578</v>
+        <v>0.05489120290493332</v>
       </c>
       <c r="F20">
-        <v>3.720281778339682</v>
+        <v>2.984719019129216</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,39 +1288,45 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.79720945784706</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09949108743602508</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7995152881018299</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4260939164481528</v>
       </c>
       <c r="M20">
-        <v>1.305503137116716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.397284001327193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.390021223439931</v>
+        <v>4.084524912863856</v>
       </c>
       <c r="C21">
-        <v>1.92754830551803</v>
+        <v>0.4172592659147085</v>
       </c>
       <c r="D21">
-        <v>0.0152569257197257</v>
+        <v>0.05272506641063401</v>
       </c>
       <c r="E21">
-        <v>0.1185246988777848</v>
+        <v>0.05855164980726713</v>
       </c>
       <c r="F21">
-        <v>4.20618694348201</v>
+        <v>3.321712340871471</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1215,39 +1335,45 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.009262630898775</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1121181472606132</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.9113275534180758</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4826900107607202</v>
       </c>
       <c r="M21">
-        <v>1.494457234055545</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.656867651273814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.758096820414494</v>
+        <v>4.416548869365386</v>
       </c>
       <c r="C22">
-        <v>2.093783941546917</v>
+        <v>0.445812324281917</v>
       </c>
       <c r="D22">
-        <v>0.01576871888438092</v>
+        <v>0.05218313020002441</v>
       </c>
       <c r="E22">
-        <v>0.1279608099889806</v>
+        <v>0.06105853103346348</v>
       </c>
       <c r="F22">
-        <v>4.538175136757303</v>
+        <v>3.550472065263307</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1256,39 +1382,45 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.155011841114927</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1207801659345265</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.986039819105585</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5207204099293534</v>
       </c>
       <c r="M22">
-        <v>1.62182856181586</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.833439182420463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.560638683373554</v>
+        <v>4.23856678759978</v>
       </c>
       <c r="C23">
-        <v>2.004520308600206</v>
+        <v>0.4305213931203298</v>
       </c>
       <c r="D23">
-        <v>0.01548537432785935</v>
+        <v>0.0524635376343987</v>
       </c>
       <c r="E23">
-        <v>0.1228862738583167</v>
+        <v>0.05970929121511759</v>
       </c>
       <c r="F23">
-        <v>4.359526984637739</v>
+        <v>3.42752934912005</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1297,39 +1429,45 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.076499558416913</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1161156177302054</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9459988705618514</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5003184950266615</v>
       </c>
       <c r="M23">
-        <v>1.553452099846339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.738509865150007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.833106870527729</v>
+        <v>3.580266742316326</v>
       </c>
       <c r="C24">
-        <v>1.677320516595842</v>
+        <v>0.3736380841808824</v>
       </c>
       <c r="D24">
-        <v>0.01461788792476426</v>
+        <v>0.0537079064575039</v>
       </c>
       <c r="E24">
-        <v>0.1044446653747215</v>
+        <v>0.05483314205669032</v>
       </c>
       <c r="F24">
-        <v>3.712554088410826</v>
+        <v>2.979339938738264</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,39 +1476,45 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.793850237086929</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09929078453699702</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7977120488686467</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4251845475286444</v>
       </c>
       <c r="M24">
-        <v>1.302471695962652</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.393146047907166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.081267528263595</v>
+        <v>2.896766910825761</v>
       </c>
       <c r="C25">
-        <v>1.341989134083519</v>
+        <v>0.3138751504296238</v>
       </c>
       <c r="D25">
-        <v>0.01402060081065315</v>
+        <v>0.05537359164183542</v>
       </c>
       <c r="E25">
-        <v>0.08585226849725558</v>
+        <v>0.04999385791117383</v>
       </c>
       <c r="F25">
-        <v>3.064259269755269</v>
+        <v>2.526109211935832</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1379,19 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.513720630007683</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08254953278837718</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6433560327723526</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3477923379566619</v>
       </c>
       <c r="M25">
-        <v>1.044791512433463</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.045197300942945</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.410177208411312</v>
+        <v>3.655087771692479</v>
       </c>
       <c r="C2">
-        <v>0.2707256035035357</v>
+        <v>1.102327439756522</v>
       </c>
       <c r="D2">
-        <v>0.05682364064669088</v>
+        <v>0.04394585665823314</v>
       </c>
       <c r="E2">
-        <v>0.0467232446994359</v>
+        <v>1.44607242820986</v>
       </c>
       <c r="F2">
-        <v>2.212288549155929</v>
+        <v>0.4100419245181186</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.07384185817875633</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5331392171271077</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2931587729166836</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.805231901111682</v>
+        <v>1.037545947469965</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.088188840757937</v>
+        <v>3.183736041384122</v>
       </c>
       <c r="C3">
-        <v>0.2417988936051358</v>
+        <v>0.9648184972669469</v>
       </c>
       <c r="D3">
-        <v>0.05792348794453517</v>
+        <v>0.03870238359368727</v>
       </c>
       <c r="E3">
-        <v>0.04465968659899211</v>
+        <v>1.240163217300633</v>
       </c>
       <c r="F3">
-        <v>2.009430705684252</v>
+        <v>0.3673858865901565</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.08058953266054303</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4600055333550372</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.257263578010452</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.650643819154439</v>
+        <v>0.9440195879715532</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.893568254163654</v>
+        <v>2.894821862557365</v>
       </c>
       <c r="C4">
-        <v>0.2241320033216851</v>
+        <v>0.8805447530158119</v>
       </c>
       <c r="D4">
-        <v>0.05865025624168041</v>
+        <v>0.0354851745418685</v>
       </c>
       <c r="E4">
-        <v>0.0434595071031918</v>
+        <v>1.116303712820084</v>
       </c>
       <c r="F4">
-        <v>1.888969888957988</v>
+        <v>0.3427384903625565</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.08570690861706609</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4157039833381546</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2356844078189653</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.559087450814189</v>
+        <v>0.891728895802828</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.814932585653708</v>
+        <v>2.777159453154582</v>
       </c>
       <c r="C5">
-        <v>0.21694809283089</v>
+        <v>0.8462252171238163</v>
       </c>
       <c r="D5">
-        <v>0.05895851070395963</v>
+        <v>0.03417420971754126</v>
       </c>
       <c r="E5">
-        <v>0.04298607039393154</v>
+        <v>1.066376519789358</v>
       </c>
       <c r="F5">
-        <v>1.840809542947014</v>
+        <v>0.3330492113543784</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.08802068736118507</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3977799568533129</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2269935123103721</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.52254118139065</v>
+        <v>0.871602776057145</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.80191309130899</v>
+        <v>2.757624618278498</v>
       </c>
       <c r="C6">
-        <v>0.2157559195336347</v>
+        <v>0.8405273896543122</v>
       </c>
       <c r="D6">
-        <v>0.05901040304250671</v>
+        <v>0.03395651574653868</v>
       </c>
       <c r="E6">
-        <v>0.04290836919526875</v>
+        <v>1.05811641595578</v>
       </c>
       <c r="F6">
-        <v>1.832865818692881</v>
+        <v>0.3314608048216456</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.08841821947982709</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.394810871498585</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2255562427857996</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.516516563849891</v>
+        <v>0.8683292556127071</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.892505145390658</v>
+        <v>2.893234799267702</v>
       </c>
       <c r="C7">
-        <v>0.2240350661851096</v>
+        <v>0.8800818370922627</v>
       </c>
       <c r="D7">
-        <v>0.05865436557892423</v>
+        <v>0.03546749474057975</v>
       </c>
       <c r="E7">
-        <v>0.0434530602944676</v>
+        <v>1.115628289353467</v>
       </c>
       <c r="F7">
-        <v>1.888316750592864</v>
+        <v>0.3426064235677302</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.08573720935907758</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4154617586743115</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2355667996323234</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.558591585977268</v>
+        <v>0.8914528168469644</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.29845242189009</v>
+        <v>3.492429187865469</v>
       </c>
       <c r="C8">
-        <v>0.2607269370606247</v>
+        <v>1.054871069334723</v>
       </c>
       <c r="D8">
-        <v>0.05719165126738801</v>
+        <v>0.04213710543540827</v>
       </c>
       <c r="E8">
-        <v>0.04599712440254855</v>
+        <v>1.374478723402376</v>
       </c>
       <c r="F8">
-        <v>2.141429754219232</v>
+        <v>0.3949929088822444</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.07595591676090407</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.507783519717627</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2806783134619906</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.751181091406139</v>
+        <v>1.00416462771696</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.12403539280325</v>
+        <v>4.674063522794654</v>
       </c>
       <c r="C9">
-        <v>0.3338421811275794</v>
+        <v>1.399735735263675</v>
       </c>
       <c r="D9">
-        <v>0.05477447044289718</v>
+        <v>0.05526100856252469</v>
       </c>
       <c r="E9">
-        <v>0.05157427525076486</v>
+        <v>1.907507807400791</v>
       </c>
       <c r="F9">
-        <v>2.675316065467172</v>
+        <v>0.5116070724179878</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.06531289568053822</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6947330582494118</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3734483619986548</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.159581525015383</v>
+        <v>1.271252654974006</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.75652886715568</v>
+        <v>5.550426167245803</v>
       </c>
       <c r="C10">
-        <v>0.3889247348954257</v>
+        <v>1.655737624000608</v>
       </c>
       <c r="D10">
-        <v>0.05334178318688387</v>
+        <v>0.06497354724343296</v>
       </c>
       <c r="E10">
-        <v>0.05611996437368205</v>
+        <v>2.322606586173663</v>
       </c>
       <c r="F10">
-        <v>3.098292896356867</v>
+        <v>0.6082475796837628</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.06392497095707839</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8374481285203075</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4452489733128573</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.484694479843512</v>
+        <v>1.503695879744498</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.051942399612471</v>
+        <v>5.951947633293742</v>
       </c>
       <c r="C11">
-        <v>0.4144505790405049</v>
+        <v>1.773114414527527</v>
       </c>
       <c r="D11">
-        <v>0.05278265645755909</v>
+        <v>0.06941865122766444</v>
       </c>
       <c r="E11">
-        <v>0.058308031241733</v>
+        <v>2.518644964101867</v>
       </c>
       <c r="F11">
-        <v>3.299401701142898</v>
+        <v>0.6552183642140506</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.06499616621398019</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9039919437275188</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4789648431586073</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.639661802179674</v>
+        <v>1.619346916535477</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.165109307129342</v>
+        <v>6.104502519388518</v>
       </c>
       <c r="C12">
-        <v>0.4242004874180338</v>
+        <v>1.817726501095876</v>
       </c>
       <c r="D12">
-        <v>0.05258605035021802</v>
+        <v>0.0711068345521042</v>
       </c>
       <c r="E12">
-        <v>0.05915605322733697</v>
+        <v>2.594122115875166</v>
       </c>
       <c r="F12">
-        <v>3.376999589976634</v>
+        <v>0.6734964614842625</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.06567546449162975</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9294672089163356</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4919086152173548</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.699516569288136</v>
+        <v>1.664759190403487</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.140675587927944</v>
+        <v>6.071622877003449</v>
       </c>
       <c r="C13">
-        <v>0.422096655106202</v>
+        <v>1.808110647279136</v>
       </c>
       <c r="D13">
-        <v>0.05262768861964418</v>
+        <v>0.07074301679300987</v>
       </c>
       <c r="E13">
-        <v>0.0589725141994073</v>
+        <v>2.577807938545249</v>
       </c>
       <c r="F13">
-        <v>3.360220019154866</v>
+        <v>0.6695370910378244</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.06551650094164074</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9239676024480445</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4891126711478648</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.686570960860308</v>
+        <v>1.654903591291315</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.061225445309333</v>
+        <v>5.964487655754908</v>
       </c>
       <c r="C14">
-        <v>0.4152509273810097</v>
+        <v>1.776781194522528</v>
       </c>
       <c r="D14">
-        <v>0.05276616712380644</v>
+        <v>0.06955743389205082</v>
       </c>
       <c r="E14">
-        <v>0.05837739539319742</v>
+        <v>2.524828344897372</v>
       </c>
       <c r="F14">
-        <v>3.305755629784045</v>
+        <v>0.6567119086606681</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.06504639141657975</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9060819976039625</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4800260479905205</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.644561640403381</v>
+        <v>1.623049407988248</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.012735473695045</v>
+        <v>5.898933363028561</v>
       </c>
       <c r="C15">
-        <v>0.4110691656382244</v>
+        <v>1.757613370764034</v>
       </c>
       <c r="D15">
-        <v>0.05285301701879064</v>
+        <v>0.06883190475601708</v>
       </c>
       <c r="E15">
-        <v>0.05801546948133307</v>
+        <v>2.492545127573337</v>
       </c>
       <c r="F15">
-        <v>3.272588580993641</v>
+        <v>0.6489219468152641</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.06479498423583152</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8951639489966396</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4744839804095591</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.618987295845471</v>
+        <v>1.603754568127329</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.737393684239407</v>
+        <v>5.524251317772553</v>
       </c>
       <c r="C16">
-        <v>0.3872673439269363</v>
+        <v>1.64808791688597</v>
       </c>
       <c r="D16">
-        <v>0.05338033517906382</v>
+        <v>0.06468367645924644</v>
       </c>
       <c r="E16">
-        <v>0.05597956686854388</v>
+        <v>2.309956920494386</v>
       </c>
       <c r="F16">
-        <v>3.085340785445027</v>
+        <v>0.6052433350603508</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.06389161983394942</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.833135548548853</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4430688099760118</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.474722111998275</v>
+        <v>1.496353217418886</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.570580473709299</v>
+        <v>5.295193557993684</v>
       </c>
       <c r="C17">
-        <v>0.3727967058797645</v>
+        <v>1.58115468215351</v>
       </c>
       <c r="D17">
-        <v>0.0537287485642679</v>
+        <v>0.06214645325616175</v>
       </c>
       <c r="E17">
-        <v>0.05476285253973501</v>
+        <v>2.199927879083617</v>
       </c>
       <c r="F17">
-        <v>2.972826347678676</v>
+        <v>0.5792582134362618</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.06379305538173341</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7955276605324997</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.42408311689735</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.388135595908153</v>
+        <v>1.433134773948893</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.475344631656299</v>
+        <v>5.163708394703576</v>
       </c>
       <c r="C18">
-        <v>0.3645165670652375</v>
+        <v>1.542740962536755</v>
       </c>
       <c r="D18">
-        <v>0.05393774064947365</v>
+        <v>0.06068956246520685</v>
       </c>
       <c r="E18">
-        <v>0.0540742013350517</v>
+        <v>2.137306608108474</v>
       </c>
       <c r="F18">
-        <v>2.90891654231902</v>
+        <v>0.5645915646413187</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.06389471815723624</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7740463653503014</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4132605404090128</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.338988577723015</v>
+        <v>1.397693381402377</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.443215949503156</v>
+        <v>5.119232156696569</v>
       </c>
       <c r="C19">
-        <v>0.3617199726557061</v>
+        <v>1.529748346110296</v>
       </c>
       <c r="D19">
-        <v>0.05400992712474562</v>
+        <v>0.06019667552747165</v>
       </c>
       <c r="E19">
-        <v>0.05384289278388188</v>
+        <v>2.116212480195927</v>
       </c>
       <c r="F19">
-        <v>2.887410668230757</v>
+        <v>0.5596719771062837</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.06395550847286557</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7667976607100115</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4096122403529421</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.322456374499481</v>
+        <v>1.385846060937553</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.588263139725882</v>
+        <v>5.319549286031304</v>
       </c>
       <c r="C20">
-        <v>0.3743325687411669</v>
+        <v>1.588270875506794</v>
       </c>
       <c r="D20">
-        <v>0.0536907577093082</v>
+        <v>0.06241628389941667</v>
       </c>
       <c r="E20">
-        <v>0.05489120290493332</v>
+        <v>2.211570491222076</v>
       </c>
       <c r="F20">
-        <v>2.984719019129216</v>
+        <v>0.5819950625642605</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.06378695969643644</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7995152881018299</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4260939164481528</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.397284001327193</v>
+        <v>1.439767924287509</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.084524912863856</v>
+        <v>5.995941274445954</v>
       </c>
       <c r="C21">
-        <v>0.4172592659147085</v>
+        <v>1.785978690031186</v>
       </c>
       <c r="D21">
-        <v>0.05272506641063401</v>
+        <v>0.06990552563034669</v>
       </c>
       <c r="E21">
-        <v>0.05855164980726713</v>
+        <v>2.540354249011997</v>
       </c>
       <c r="F21">
-        <v>3.321712340871471</v>
+        <v>0.6604651419629732</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.06517680128665759</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9113275534180758</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4826900107607202</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.656867651273814</v>
+        <v>1.632360204326716</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.416548869365386</v>
+        <v>6.441013048128639</v>
       </c>
       <c r="C22">
-        <v>0.445812324281917</v>
+        <v>1.916165979820619</v>
       </c>
       <c r="D22">
-        <v>0.05218313020002441</v>
+        <v>0.07482945308077404</v>
       </c>
       <c r="E22">
-        <v>0.06105853103346348</v>
+        <v>2.762589365951129</v>
       </c>
       <c r="F22">
-        <v>3.550472065263307</v>
+        <v>0.7146456245239534</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.06769601232103284</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.986039819105585</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5207204099293534</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.833439182420463</v>
+        <v>1.76776580218754</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.23856678759978</v>
+        <v>6.203159665616226</v>
       </c>
       <c r="C23">
-        <v>0.4305213931203298</v>
+        <v>1.846581946035485</v>
       </c>
       <c r="D23">
-        <v>0.0524635376343987</v>
+        <v>0.07219839097820113</v>
       </c>
       <c r="E23">
-        <v>0.05970929121511759</v>
+        <v>2.64322912257208</v>
       </c>
       <c r="F23">
-        <v>3.42752934912005</v>
+        <v>0.685442358305707</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.06619368425964112</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9459988705618514</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5003184950266615</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.738509865150007</v>
+        <v>1.694555221844496</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.580266742316326</v>
+        <v>5.308537435611697</v>
       </c>
       <c r="C24">
-        <v>0.3736380841808824</v>
+        <v>1.585053437871693</v>
       </c>
       <c r="D24">
-        <v>0.0537079064575039</v>
+        <v>0.0622942879601851</v>
       </c>
       <c r="E24">
-        <v>0.05483314205669032</v>
+        <v>2.206304900711586</v>
       </c>
       <c r="F24">
-        <v>2.979339938738264</v>
+        <v>0.5807568885107202</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.06378922453665226</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7977120488686467</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4251845475286444</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.393146047907166</v>
+        <v>1.436766276362448</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.896766910825761</v>
+        <v>4.353285421662349</v>
       </c>
       <c r="C25">
-        <v>0.3138751504296238</v>
+        <v>1.306085055941878</v>
       </c>
       <c r="D25">
-        <v>0.05537359164183542</v>
+        <v>0.05170172861708267</v>
       </c>
       <c r="E25">
-        <v>0.04999385791117383</v>
+        <v>1.75982404006399</v>
       </c>
       <c r="F25">
-        <v>2.526109211935832</v>
+        <v>0.4783296799336298</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.06715835745994525</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6433560327723526</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3477923379566619</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.045197300942945</v>
+        <v>1.193275158560738</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.655087771692479</v>
+        <v>1.199213271610233</v>
       </c>
       <c r="C2">
-        <v>1.102327439756522</v>
+        <v>0.354944670868008</v>
       </c>
       <c r="D2">
-        <v>0.04394585665823314</v>
+        <v>0.01503616514069961</v>
       </c>
       <c r="E2">
-        <v>1.44607242820986</v>
+        <v>0.4254321993331303</v>
       </c>
       <c r="F2">
-        <v>0.4100419245181186</v>
+        <v>0.4030827437275448</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.07384185817875633</v>
+        <v>0.2470587248881824</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.037545947469965</v>
+        <v>1.244608197349265</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.183736041384122</v>
+        <v>1.049321093537515</v>
       </c>
       <c r="C3">
-        <v>0.9648184972669469</v>
+        <v>0.3110170542605033</v>
       </c>
       <c r="D3">
-        <v>0.03870238359368727</v>
+        <v>0.01326176328310424</v>
       </c>
       <c r="E3">
-        <v>1.240163217300633</v>
+        <v>0.3710241705299779</v>
       </c>
       <c r="F3">
-        <v>0.3673858865901565</v>
+        <v>0.3993247100541879</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.08058953266054303</v>
+        <v>0.2546024141071861</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9440195879715532</v>
+        <v>1.246152473051836</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.894821862557365</v>
+        <v>0.9569891392220029</v>
       </c>
       <c r="C4">
-        <v>0.8805447530158119</v>
+        <v>0.2839267843903315</v>
       </c>
       <c r="D4">
-        <v>0.0354851745418685</v>
+        <v>0.01216786834112327</v>
       </c>
       <c r="E4">
-        <v>1.116303712820084</v>
+        <v>0.3377147263827851</v>
       </c>
       <c r="F4">
-        <v>0.3427384903625565</v>
+        <v>0.3975013686066049</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.08570690861706609</v>
+        <v>0.2595819383436453</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.891728895802828</v>
+        <v>1.248714745250382</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.777159453154582</v>
+        <v>0.9192903332054243</v>
       </c>
       <c r="C5">
-        <v>0.8462252171238163</v>
+        <v>0.2728579909621658</v>
       </c>
       <c r="D5">
-        <v>0.03417420971754126</v>
+        <v>0.01172102449260137</v>
       </c>
       <c r="E5">
-        <v>1.066376519789358</v>
+        <v>0.3241633335824616</v>
       </c>
       <c r="F5">
-        <v>0.3330492113543784</v>
+        <v>0.3968793584726313</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.08802068736118507</v>
+        <v>0.2616981020691878</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.871602776057145</v>
+        <v>1.25016221876777</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.757624618278498</v>
+        <v>0.9130261397797312</v>
       </c>
       <c r="C6">
-        <v>0.8405273896543122</v>
+        <v>0.2710182727439019</v>
       </c>
       <c r="D6">
-        <v>0.03395651574653868</v>
+        <v>0.01164676265852904</v>
       </c>
       <c r="E6">
-        <v>1.05811641595578</v>
+        <v>0.3219144347038565</v>
       </c>
       <c r="F6">
-        <v>0.3314608048216456</v>
+        <v>0.3967833622882466</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.08841821947982709</v>
+        <v>0.2620547286666621</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8683292556127071</v>
+        <v>1.250426856040676</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.893234799267702</v>
+        <v>0.9564810119189815</v>
       </c>
       <c r="C7">
-        <v>0.8800818370922627</v>
+        <v>0.2837776246635428</v>
       </c>
       <c r="D7">
-        <v>0.03546749474057975</v>
+        <v>0.0121618463455988</v>
       </c>
       <c r="E7">
-        <v>1.115628289353467</v>
+        <v>0.3375318791631088</v>
       </c>
       <c r="F7">
-        <v>0.3426064235677302</v>
+        <v>0.3974924909217421</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.08573720935907758</v>
+        <v>0.2596101261489689</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8914528168469644</v>
+        <v>1.248732636715403</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.492429187865469</v>
+        <v>1.14759337227639</v>
       </c>
       <c r="C8">
-        <v>1.054871069334723</v>
+        <v>0.3398233259204062</v>
       </c>
       <c r="D8">
-        <v>0.04213710543540827</v>
+        <v>0.0144252858462508</v>
       </c>
       <c r="E8">
-        <v>1.374478723402376</v>
+        <v>0.4066508972364602</v>
       </c>
       <c r="F8">
-        <v>0.3949929088822444</v>
+        <v>0.4016860639633606</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.07595591676090407</v>
+        <v>0.2495873564182904</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.00416462771696</v>
+        <v>1.244804124213232</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.674063522794654</v>
+        <v>1.519932936973134</v>
       </c>
       <c r="C9">
-        <v>1.399735735263675</v>
+        <v>0.4487710321283203</v>
       </c>
       <c r="D9">
-        <v>0.05526100856252469</v>
+        <v>0.01882763574549529</v>
       </c>
       <c r="E9">
-        <v>1.907507807400791</v>
+        <v>0.5430615204112854</v>
       </c>
       <c r="F9">
-        <v>0.5116070724179878</v>
+        <v>0.4137842399471268</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.06531289568053822</v>
+        <v>0.2327115326399998</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.271252654974006</v>
+        <v>1.250024152912715</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.550426167245803</v>
+        <v>1.791942598005846</v>
       </c>
       <c r="C10">
-        <v>1.655737624000608</v>
+        <v>0.5282161006501269</v>
       </c>
       <c r="D10">
-        <v>0.06497354724343296</v>
+        <v>0.02203855149714684</v>
       </c>
       <c r="E10">
-        <v>2.322606586173663</v>
+        <v>0.6439546468780861</v>
       </c>
       <c r="F10">
-        <v>0.6082475796837628</v>
+        <v>0.4250827099878194</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.06392497095707839</v>
+        <v>0.2220342732705323</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.503695879744498</v>
+        <v>1.26190253960533</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.951947633293742</v>
+        <v>1.915338907632815</v>
       </c>
       <c r="C11">
-        <v>1.773114414527527</v>
+        <v>0.564225176901175</v>
       </c>
       <c r="D11">
-        <v>0.06941865122766444</v>
+        <v>0.02349391636342801</v>
       </c>
       <c r="E11">
-        <v>2.518644964101867</v>
+        <v>0.690031129686048</v>
       </c>
       <c r="F11">
-        <v>0.6552183642140506</v>
+        <v>0.4307563817382345</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.06499616621398019</v>
+        <v>0.2175565732668723</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.619346916535477</v>
+        <v>1.269088469333695</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.104502519388518</v>
+        <v>1.962015122589662</v>
       </c>
       <c r="C12">
-        <v>1.817726501095876</v>
+        <v>0.5778416822854524</v>
       </c>
       <c r="D12">
-        <v>0.0711068345521042</v>
+        <v>0.02404423550894563</v>
       </c>
       <c r="E12">
-        <v>2.594122115875166</v>
+        <v>0.7075073357755883</v>
       </c>
       <c r="F12">
-        <v>0.6734964614842625</v>
+        <v>0.4329824448454502</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.06567546449162975</v>
+        <v>0.2159160425858815</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.664759190403487</v>
+        <v>1.272068743956197</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.071622877003449</v>
+        <v>1.951964878313788</v>
       </c>
       <c r="C13">
-        <v>1.808110647279136</v>
+        <v>0.574909993150527</v>
       </c>
       <c r="D13">
-        <v>0.07074301679300987</v>
+        <v>0.02392575037173827</v>
       </c>
       <c r="E13">
-        <v>2.577807938545249</v>
+        <v>0.7037422395795971</v>
       </c>
       <c r="F13">
-        <v>0.6695370910378244</v>
+        <v>0.4324995599823183</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.06551650094164074</v>
+        <v>0.2162669024471313</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.654903591291315</v>
+        <v>1.271415319235615</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.964487655754908</v>
+        <v>1.91918002760093</v>
       </c>
       <c r="C14">
-        <v>1.776781194522528</v>
+        <v>0.5653458057975058</v>
       </c>
       <c r="D14">
-        <v>0.06955743389205082</v>
+        <v>0.02353920759617267</v>
       </c>
       <c r="E14">
-        <v>2.524828344897372</v>
+        <v>0.6914683329632823</v>
       </c>
       <c r="F14">
-        <v>0.6567119086606681</v>
+        <v>0.4309379622260394</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.06504639141657975</v>
+        <v>0.2174204990424968</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.623049407988248</v>
+        <v>1.269328449053091</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.898933363028561</v>
+        <v>1.899091619540798</v>
       </c>
       <c r="C15">
-        <v>1.757613370764034</v>
+        <v>0.5594849293671018</v>
       </c>
       <c r="D15">
-        <v>0.06883190475601708</v>
+        <v>0.02330233432530093</v>
       </c>
       <c r="E15">
-        <v>2.492545127573337</v>
+        <v>0.6839539284820262</v>
       </c>
       <c r="F15">
-        <v>0.6489219468152641</v>
+        <v>0.4299915633601756</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.06479498423583152</v>
+        <v>0.2181342982195957</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.603754568127329</v>
+        <v>1.268084009353515</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.524251317772553</v>
+        <v>1.783871293892219</v>
       </c>
       <c r="C16">
-        <v>1.64808791688597</v>
+        <v>0.5258601436306094</v>
       </c>
       <c r="D16">
-        <v>0.06468367645924644</v>
+        <v>0.02194333044912611</v>
       </c>
       <c r="E16">
-        <v>2.309956920494386</v>
+        <v>0.6409472439179638</v>
       </c>
       <c r="F16">
-        <v>0.6052433350603508</v>
+        <v>0.4247227336731996</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.06389161983394942</v>
+        <v>0.2223345807100117</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.496353217418886</v>
+        <v>1.261469028813877</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.295193557993684</v>
+        <v>1.713098210472424</v>
       </c>
       <c r="C17">
-        <v>1.58115468215351</v>
+        <v>0.5051985243355261</v>
       </c>
       <c r="D17">
-        <v>0.06214645325616175</v>
+        <v>0.02110824433166414</v>
       </c>
       <c r="E17">
-        <v>2.199927879083617</v>
+        <v>0.6146116184445276</v>
       </c>
       <c r="F17">
-        <v>0.5792582134362618</v>
+        <v>0.4216277917657152</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.06379305538173341</v>
+        <v>0.2250088668850321</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.433134773948893</v>
+        <v>1.257869465458867</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.163708394703576</v>
+        <v>1.672359312328695</v>
       </c>
       <c r="C18">
-        <v>1.542740962536755</v>
+        <v>0.4933022189781013</v>
       </c>
       <c r="D18">
-        <v>0.06068956246520685</v>
+        <v>0.0206274283238983</v>
       </c>
       <c r="E18">
-        <v>2.137306608108474</v>
+        <v>0.5994808435457628</v>
       </c>
       <c r="F18">
-        <v>0.5645915646413187</v>
+        <v>0.4198978730123741</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.06389471815723624</v>
+        <v>0.2265827293310387</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.397693381402377</v>
+        <v>1.255966690492045</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.119232156696569</v>
+        <v>1.658560373303601</v>
       </c>
       <c r="C19">
-        <v>1.529748346110296</v>
+        <v>0.4892722401429523</v>
       </c>
       <c r="D19">
-        <v>0.06019667552747165</v>
+        <v>0.02046454805777387</v>
       </c>
       <c r="E19">
-        <v>2.116212480195927</v>
+        <v>0.5943606385196745</v>
       </c>
       <c r="F19">
-        <v>0.5596719771062837</v>
+        <v>0.4193207519033493</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.06395550847286557</v>
+        <v>0.2271217251800426</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.385846060937553</v>
+        <v>1.255351143183873</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.319549286031304</v>
+        <v>1.720635462592952</v>
       </c>
       <c r="C20">
-        <v>1.588270875506794</v>
+        <v>0.5073992646434249</v>
       </c>
       <c r="D20">
-        <v>0.06241628389941667</v>
+        <v>0.02119719231695427</v>
       </c>
       <c r="E20">
-        <v>2.211570491222076</v>
+        <v>0.617413338128884</v>
       </c>
       <c r="F20">
-        <v>0.5819950625642605</v>
+        <v>0.4219520513896455</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.06378695969643644</v>
+        <v>0.2247204877097619</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.439767924287509</v>
+        <v>1.258235278979754</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.995941274445954</v>
+        <v>1.928811141306539</v>
       </c>
       <c r="C21">
-        <v>1.785978690031186</v>
+        <v>0.5681555687934292</v>
       </c>
       <c r="D21">
-        <v>0.06990552563034669</v>
+        <v>0.02365276645058856</v>
       </c>
       <c r="E21">
-        <v>2.540354249011997</v>
+        <v>0.695072698124676</v>
       </c>
       <c r="F21">
-        <v>0.6604651419629732</v>
+        <v>0.4313945299252424</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.06517680128665759</v>
+        <v>0.2170801608760939</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.632360204326716</v>
+        <v>1.269934358543964</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.441013048128639</v>
+        <v>2.064566090058918</v>
       </c>
       <c r="C22">
-        <v>1.916165979820619</v>
+        <v>0.6077502989650725</v>
       </c>
       <c r="D22">
-        <v>0.07482945308077404</v>
+        <v>0.02525297134520343</v>
       </c>
       <c r="E22">
-        <v>2.762589365951129</v>
+        <v>0.7459920709235348</v>
       </c>
       <c r="F22">
-        <v>0.7146456245239534</v>
+        <v>0.4380182199325873</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.06769601232103284</v>
+        <v>0.2124080368787808</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.76776580218754</v>
+        <v>1.279092037482741</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.203159665616226</v>
+        <v>1.992139235232116</v>
       </c>
       <c r="C23">
-        <v>1.846581946035485</v>
+        <v>0.5866283605292324</v>
       </c>
       <c r="D23">
-        <v>0.07219839097820113</v>
+        <v>0.02439934891990703</v>
       </c>
       <c r="E23">
-        <v>2.64322912257208</v>
+        <v>0.7187996576595594</v>
       </c>
       <c r="F23">
-        <v>0.685442358305707</v>
+        <v>0.434441369289047</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.06619368425964112</v>
+        <v>0.2148720707879548</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.694555221844496</v>
+        <v>1.27406516419245</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.308537435611697</v>
+        <v>1.717228028083412</v>
       </c>
       <c r="C24">
-        <v>1.585053437871693</v>
+        <v>0.5064043649381915</v>
       </c>
       <c r="D24">
-        <v>0.0622942879601851</v>
+        <v>0.02115698115353126</v>
       </c>
       <c r="E24">
-        <v>2.206304900711586</v>
+        <v>0.6161466499250565</v>
       </c>
       <c r="F24">
-        <v>0.5807568885107202</v>
+        <v>0.4218052997839123</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.06378922453665226</v>
+        <v>0.2248507506545945</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.436766276362448</v>
+        <v>1.258069375765729</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.353285421662349</v>
+        <v>1.419472465225738</v>
       </c>
       <c r="C25">
-        <v>1.306085055941878</v>
+        <v>0.4194019072779156</v>
       </c>
       <c r="D25">
-        <v>0.05170172861708267</v>
+        <v>0.01764071084648577</v>
       </c>
       <c r="E25">
-        <v>1.75982404006399</v>
+        <v>0.506051184457263</v>
       </c>
       <c r="F25">
-        <v>0.4783296799336298</v>
+        <v>0.4100916148856655</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.06715835745994525</v>
+        <v>0.2369765749567776</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.193275158560738</v>
+        <v>1.247211425952941</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.199213271610233</v>
+        <v>3.655087771692706</v>
       </c>
       <c r="C2">
-        <v>0.354944670868008</v>
+        <v>1.102327439756209</v>
       </c>
       <c r="D2">
-        <v>0.01503616514069961</v>
+        <v>0.04394585665822603</v>
       </c>
       <c r="E2">
-        <v>0.4254321993331303</v>
+        <v>1.446072428209845</v>
       </c>
       <c r="F2">
-        <v>0.4030827437275448</v>
+        <v>0.410041924518147</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0.2470587248881824</v>
+        <v>0.07384185817875633</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.244608197349265</v>
+        <v>1.037545947469965</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049321093537515</v>
+        <v>3.183736041384179</v>
       </c>
       <c r="C3">
-        <v>0.3110170542605033</v>
+        <v>0.9648184972672595</v>
       </c>
       <c r="D3">
-        <v>0.01326176328310424</v>
+        <v>0.03870238359341727</v>
       </c>
       <c r="E3">
-        <v>0.3710241705299779</v>
+        <v>1.240163217300619</v>
       </c>
       <c r="F3">
-        <v>0.3993247100541879</v>
+        <v>0.3673858865901636</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.2546024141071861</v>
+        <v>0.08058953266052704</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.246152473051836</v>
+        <v>0.9440195879715247</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9569891392220029</v>
+        <v>2.894821862557308</v>
       </c>
       <c r="C4">
-        <v>0.2839267843903315</v>
+        <v>0.8805447530160393</v>
       </c>
       <c r="D4">
-        <v>0.01216786834112327</v>
+        <v>0.03548517454185429</v>
       </c>
       <c r="E4">
-        <v>0.3377147263827851</v>
+        <v>1.116303712820056</v>
       </c>
       <c r="F4">
-        <v>0.3975013686066049</v>
+        <v>0.3427384903625565</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.2595819383436453</v>
+        <v>0.08570690861704833</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.248714745250382</v>
+        <v>0.891728895802899</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9192903332054243</v>
+        <v>2.777159453154695</v>
       </c>
       <c r="C5">
-        <v>0.2728579909621658</v>
+        <v>0.846225217123532</v>
       </c>
       <c r="D5">
-        <v>0.01172102449260137</v>
+        <v>0.03417420971765495</v>
       </c>
       <c r="E5">
-        <v>0.3241633335824616</v>
+        <v>1.066376519789344</v>
       </c>
       <c r="F5">
-        <v>0.3968793584726313</v>
+        <v>0.3330492113543571</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.2616981020691878</v>
+        <v>0.08802068736117974</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.25016221876777</v>
+        <v>0.8716027760570171</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9130261397797312</v>
+        <v>2.757624618278669</v>
       </c>
       <c r="C6">
-        <v>0.2710182727439019</v>
+        <v>0.8405273896543406</v>
       </c>
       <c r="D6">
-        <v>0.01164676265852904</v>
+        <v>0.03395651574653158</v>
       </c>
       <c r="E6">
-        <v>0.3219144347038565</v>
+        <v>1.05811641595578</v>
       </c>
       <c r="F6">
-        <v>0.3967833622882466</v>
+        <v>0.3314608048216598</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.2620547286666621</v>
+        <v>0.08841821947982531</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.250426856040676</v>
+        <v>0.8683292556127924</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9564810119189815</v>
+        <v>2.893234799267702</v>
       </c>
       <c r="C7">
-        <v>0.2837776246635428</v>
+        <v>0.8800818370924617</v>
       </c>
       <c r="D7">
-        <v>0.0121618463455988</v>
+        <v>0.03546749474057265</v>
       </c>
       <c r="E7">
-        <v>0.3375318791631088</v>
+        <v>1.115628289353467</v>
       </c>
       <c r="F7">
-        <v>0.3974924909217421</v>
+        <v>0.3426064235677373</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.2596101261489689</v>
+        <v>0.08573720935909535</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.248732636715403</v>
+        <v>0.8914528168469928</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.14759337227639</v>
+        <v>3.492429187865412</v>
       </c>
       <c r="C8">
-        <v>0.3398233259204062</v>
+        <v>1.054871069334382</v>
       </c>
       <c r="D8">
-        <v>0.0144252858462508</v>
+        <v>0.04213710543551485</v>
       </c>
       <c r="E8">
-        <v>0.4066508972364602</v>
+        <v>1.374478723402405</v>
       </c>
       <c r="F8">
-        <v>0.4016860639633606</v>
+        <v>0.3949929088822444</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.2495873564182904</v>
+        <v>0.07595591676090763</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.244804124213232</v>
+        <v>1.004164627716932</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.519932936973134</v>
+        <v>4.674063522794881</v>
       </c>
       <c r="C9">
-        <v>0.4487710321283203</v>
+        <v>1.399735735263619</v>
       </c>
       <c r="D9">
-        <v>0.01882763574549529</v>
+        <v>0.05526100856225469</v>
       </c>
       <c r="E9">
-        <v>0.5430615204112854</v>
+        <v>1.907507807400791</v>
       </c>
       <c r="F9">
-        <v>0.4137842399471268</v>
+        <v>0.5116070724179664</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.2327115326399998</v>
+        <v>0.06531289568055421</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.250024152912715</v>
+        <v>1.271252654973978</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.791942598005846</v>
+        <v>5.550426167245632</v>
       </c>
       <c r="C10">
-        <v>0.5282161006501269</v>
+        <v>1.655737624000665</v>
       </c>
       <c r="D10">
-        <v>0.02203855149714684</v>
+        <v>0.06497354724344007</v>
       </c>
       <c r="E10">
-        <v>0.6439546468780861</v>
+        <v>2.322606586173649</v>
       </c>
       <c r="F10">
-        <v>0.4250827099878194</v>
+        <v>0.6082475796837628</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.2220342732705323</v>
+        <v>0.06392497095709615</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.26190253960533</v>
+        <v>1.503695879744527</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.915338907632815</v>
+        <v>5.951947633293571</v>
       </c>
       <c r="C11">
-        <v>0.564225176901175</v>
+        <v>1.773114414527754</v>
       </c>
       <c r="D11">
-        <v>0.02349391636342801</v>
+        <v>0.06941865122753654</v>
       </c>
       <c r="E11">
-        <v>0.690031129686048</v>
+        <v>2.518644964101924</v>
       </c>
       <c r="F11">
-        <v>0.4307563817382345</v>
+        <v>0.6552183642140648</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.2175565732668723</v>
+        <v>0.06499616621396598</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.269088469333695</v>
+        <v>1.619346916535477</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.962015122589662</v>
+        <v>6.104502519388689</v>
       </c>
       <c r="C12">
-        <v>0.5778416822854524</v>
+        <v>1.817726501095933</v>
       </c>
       <c r="D12">
-        <v>0.02404423550894563</v>
+        <v>0.07110683455211131</v>
       </c>
       <c r="E12">
-        <v>0.7075073357755883</v>
+        <v>2.594122115875194</v>
       </c>
       <c r="F12">
-        <v>0.4329824448454502</v>
+        <v>0.6734964614842625</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.2159160425858815</v>
+        <v>0.0656754644916262</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.272068743956197</v>
+        <v>1.664759190403487</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.951964878313788</v>
+        <v>6.071622877003563</v>
       </c>
       <c r="C13">
-        <v>0.574909993150527</v>
+        <v>1.808110647279875</v>
       </c>
       <c r="D13">
-        <v>0.02392575037173827</v>
+        <v>0.07074301679310935</v>
       </c>
       <c r="E13">
-        <v>0.7037422395795971</v>
+        <v>2.577807938545263</v>
       </c>
       <c r="F13">
-        <v>0.4324995599823183</v>
+        <v>0.6695370910378244</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.2162669024471313</v>
+        <v>0.06551650094165495</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.271415319235615</v>
+        <v>1.654903591291372</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.91918002760093</v>
+        <v>5.964487655754453</v>
       </c>
       <c r="C14">
-        <v>0.5653458057975058</v>
+        <v>1.776781194522584</v>
       </c>
       <c r="D14">
-        <v>0.02353920759617267</v>
+        <v>0.06955743389187319</v>
       </c>
       <c r="E14">
-        <v>0.6914683329632823</v>
+        <v>2.52482834489733</v>
       </c>
       <c r="F14">
-        <v>0.4309379622260394</v>
+        <v>0.6567119086606823</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.2174204990424968</v>
+        <v>0.0650463914165762</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.269328449053091</v>
+        <v>1.623049407988248</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.899091619540798</v>
+        <v>5.898933363028561</v>
       </c>
       <c r="C15">
-        <v>0.5594849293671018</v>
+        <v>1.757613370763863</v>
       </c>
       <c r="D15">
-        <v>0.02330233432530093</v>
+        <v>0.06883190475600287</v>
       </c>
       <c r="E15">
-        <v>0.6839539284820262</v>
+        <v>2.492545127573379</v>
       </c>
       <c r="F15">
-        <v>0.4299915633601756</v>
+        <v>0.6489219468152783</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.2181342982195957</v>
+        <v>0.06479498423583152</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.268084009353515</v>
+        <v>1.603754568127329</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.783871293892219</v>
+        <v>5.52425131777261</v>
       </c>
       <c r="C16">
-        <v>0.5258601436306094</v>
+        <v>1.648087916885345</v>
       </c>
       <c r="D16">
-        <v>0.02194333044912611</v>
+        <v>0.06468367645886275</v>
       </c>
       <c r="E16">
-        <v>0.6409472439179638</v>
+        <v>2.309956920494358</v>
       </c>
       <c r="F16">
-        <v>0.4247227336731996</v>
+        <v>0.6052433350603366</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.2223345807100117</v>
+        <v>0.06389161983396363</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.261469028813877</v>
+        <v>1.496353217418971</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.713098210472424</v>
+        <v>5.295193557993684</v>
       </c>
       <c r="C17">
-        <v>0.5051985243355261</v>
+        <v>1.581154682153112</v>
       </c>
       <c r="D17">
-        <v>0.02110824433166414</v>
+        <v>0.06214645325616175</v>
       </c>
       <c r="E17">
-        <v>0.6146116184445276</v>
+        <v>2.19992787908356</v>
       </c>
       <c r="F17">
-        <v>0.4216277917657152</v>
+        <v>0.5792582134362689</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.2250088668850321</v>
+        <v>0.06379305538176183</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.257869465458867</v>
+        <v>1.433134773949007</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.672359312328695</v>
+        <v>5.163708394703633</v>
       </c>
       <c r="C18">
-        <v>0.4933022189781013</v>
+        <v>1.542740962536698</v>
       </c>
       <c r="D18">
-        <v>0.0206274283238983</v>
+        <v>0.06068956246519264</v>
       </c>
       <c r="E18">
-        <v>0.5994808435457628</v>
+        <v>2.13730660810846</v>
       </c>
       <c r="F18">
-        <v>0.4198978730123741</v>
+        <v>0.5645915646413115</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.2265827293310387</v>
+        <v>0.06389471815723624</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.255966690492045</v>
+        <v>1.39769338140232</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.658560373303601</v>
+        <v>5.119232156696398</v>
       </c>
       <c r="C19">
-        <v>0.4892722401429523</v>
+        <v>1.529748346110296</v>
       </c>
       <c r="D19">
-        <v>0.02046454805777387</v>
+        <v>0.0601966755275285</v>
       </c>
       <c r="E19">
-        <v>0.5943606385196745</v>
+        <v>2.116212480195927</v>
       </c>
       <c r="F19">
-        <v>0.4193207519033493</v>
+        <v>0.5596719771062908</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.2271217251800426</v>
+        <v>0.06395550847286202</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.255351143183873</v>
+        <v>1.385846060937496</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.720635462592952</v>
+        <v>5.319549286031247</v>
       </c>
       <c r="C20">
-        <v>0.5073992646434249</v>
+        <v>1.588270875506566</v>
       </c>
       <c r="D20">
-        <v>0.02119719231695427</v>
+        <v>0.06241628389942377</v>
       </c>
       <c r="E20">
-        <v>0.617413338128884</v>
+        <v>2.21157049122202</v>
       </c>
       <c r="F20">
-        <v>0.4219520513896455</v>
+        <v>0.5819950625642534</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.2247204877097619</v>
+        <v>0.06378695969642223</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.258235278979754</v>
+        <v>1.439767924287452</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.928811141306539</v>
+        <v>5.995941274445784</v>
       </c>
       <c r="C21">
-        <v>0.5681555687934292</v>
+        <v>1.785978690030845</v>
       </c>
       <c r="D21">
-        <v>0.02365276645058856</v>
+        <v>0.06990552563040353</v>
       </c>
       <c r="E21">
-        <v>0.695072698124676</v>
+        <v>2.540354249011997</v>
       </c>
       <c r="F21">
-        <v>0.4313945299252424</v>
+        <v>0.6604651419629874</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.2170801608760939</v>
+        <v>0.06517680128665759</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.269934358543964</v>
+        <v>1.632360204326687</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.064566090058918</v>
+        <v>6.441013048128411</v>
       </c>
       <c r="C22">
-        <v>0.6077502989650725</v>
+        <v>1.916165979820562</v>
       </c>
       <c r="D22">
-        <v>0.02525297134520343</v>
+        <v>0.07482945308093747</v>
       </c>
       <c r="E22">
-        <v>0.7459920709235348</v>
+        <v>2.762589365951129</v>
       </c>
       <c r="F22">
-        <v>0.4380182199325873</v>
+        <v>0.7146456245239534</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.2124080368787808</v>
+        <v>0.06769601232102573</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.279092037482741</v>
+        <v>1.767765802187569</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.992139235232116</v>
+        <v>6.203159665616056</v>
       </c>
       <c r="C23">
-        <v>0.5866283605292324</v>
+        <v>1.846581946035485</v>
       </c>
       <c r="D23">
-        <v>0.02439934891990703</v>
+        <v>0.0721983909784214</v>
       </c>
       <c r="E23">
-        <v>0.7187996576595594</v>
+        <v>2.643229122572066</v>
       </c>
       <c r="F23">
-        <v>0.434441369289047</v>
+        <v>0.6854423583057354</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.2148720707879548</v>
+        <v>0.06619368425963756</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.27406516419245</v>
+        <v>1.694555221844467</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.717228028083412</v>
+        <v>5.30853743561164</v>
       </c>
       <c r="C24">
-        <v>0.5064043649381915</v>
+        <v>1.585053437871636</v>
       </c>
       <c r="D24">
-        <v>0.02115698115353126</v>
+        <v>0.06229428796034142</v>
       </c>
       <c r="E24">
-        <v>0.6161466499250565</v>
+        <v>2.206304900711544</v>
       </c>
       <c r="F24">
-        <v>0.4218052997839123</v>
+        <v>0.5807568885107273</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.2248507506545945</v>
+        <v>0.0637892245366487</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.258069375765729</v>
+        <v>1.436766276362476</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.419472465225738</v>
+        <v>4.353285421662235</v>
       </c>
       <c r="C25">
-        <v>0.4194019072779156</v>
+        <v>1.306085055941935</v>
       </c>
       <c r="D25">
-        <v>0.01764071084648577</v>
+        <v>0.05170172861718214</v>
       </c>
       <c r="E25">
-        <v>0.506051184457263</v>
+        <v>1.759824040063975</v>
       </c>
       <c r="F25">
-        <v>0.4100916148856655</v>
+        <v>0.4783296799336227</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.2369765749567776</v>
+        <v>0.06715835745996124</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.247211425952941</v>
+        <v>1.193275158560709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.655087771692706</v>
+        <v>1.107647599682139</v>
       </c>
       <c r="C2">
-        <v>1.102327439756209</v>
+        <v>0.1447237641865087</v>
       </c>
       <c r="D2">
-        <v>0.04394585665822603</v>
+        <v>0.08001830222816864</v>
       </c>
       <c r="E2">
-        <v>1.446072428209845</v>
+        <v>0.07603925460307792</v>
       </c>
       <c r="F2">
-        <v>0.410041924518147</v>
+        <v>0.5706737565464977</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0.003201276101975847</v>
+      </c>
+      <c r="I2">
+        <v>0.005712501787179747</v>
+      </c>
+      <c r="J2">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I2">
-        <v>0.07384185817875633</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4503491299861473</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9853008988682177</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.269865220377568</v>
       </c>
       <c r="O2">
-        <v>1.037545947469965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.800004863265386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.183736041384179</v>
+        <v>0.9646960938746361</v>
       </c>
       <c r="C3">
-        <v>0.9648184972672595</v>
+        <v>0.1357075455788745</v>
       </c>
       <c r="D3">
-        <v>0.03870238359341727</v>
+        <v>0.07294105402559126</v>
       </c>
       <c r="E3">
-        <v>1.240163217300619</v>
+        <v>0.06933426162987644</v>
       </c>
       <c r="F3">
-        <v>0.3673858865901636</v>
+        <v>0.5479892289628552</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.004726994964480091</v>
+      </c>
+      <c r="I3">
+        <v>0.007626399553984697</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0.08058953266052704</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4485142484981388</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8615449581235168</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2370674877178089</v>
       </c>
       <c r="O3">
-        <v>0.9440195879715247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.767263221145825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.894821862557308</v>
+        <v>0.8766865896846525</v>
       </c>
       <c r="C4">
-        <v>0.8805447530160393</v>
+        <v>0.1301922910992346</v>
       </c>
       <c r="D4">
-        <v>0.03548517454185429</v>
+        <v>0.06859450128302313</v>
       </c>
       <c r="E4">
-        <v>1.116303712820056</v>
+        <v>0.06517936353683851</v>
       </c>
       <c r="F4">
-        <v>0.3427384903625565</v>
+        <v>0.5344994819942954</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.005853381496581267</v>
+      </c>
+      <c r="I4">
+        <v>0.009030267939448944</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0.08570690861704833</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4475785704138353</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7855641412690488</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2169519931141508</v>
       </c>
       <c r="O4">
-        <v>0.891728895802899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.748433911290959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.777159453154695</v>
+        <v>0.8404338352642071</v>
       </c>
       <c r="C5">
-        <v>0.846225217123532</v>
+        <v>0.1281162218222462</v>
       </c>
       <c r="D5">
-        <v>0.03417420971765495</v>
+        <v>0.06689233462224564</v>
       </c>
       <c r="E5">
-        <v>1.066376519789344</v>
+        <v>0.06341173189030691</v>
       </c>
       <c r="F5">
-        <v>0.3330492113543571</v>
+        <v>0.5285279097719524</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.006361500931538921</v>
+      </c>
+      <c r="I5">
+        <v>0.009741109288933902</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0.08802068736117974</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4467405890732614</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7549317550742245</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2088279574493583</v>
       </c>
       <c r="O5">
-        <v>0.8716027760570171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.739168993928203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.757624618278669</v>
+        <v>0.8340127031329132</v>
       </c>
       <c r="C6">
-        <v>0.8405273896543406</v>
+        <v>0.1279789719266304</v>
       </c>
       <c r="D6">
-        <v>0.03395651574653158</v>
+        <v>0.06669539799764124</v>
       </c>
       <c r="E6">
-        <v>1.05811641595578</v>
+        <v>0.06303865594937896</v>
       </c>
       <c r="F6">
-        <v>0.3314608048216598</v>
+        <v>0.5268341572043695</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.006452623941815949</v>
+      </c>
+      <c r="I6">
+        <v>0.0099715785381429</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0.08841821947982531</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4459899980509299</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7502554814156639</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2075644396549308</v>
       </c>
       <c r="O6">
-        <v>0.8683292556127924</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.735328473233167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.893234799267702</v>
+        <v>0.8751082878404475</v>
       </c>
       <c r="C7">
-        <v>0.8800818370924617</v>
+        <v>0.1307323853720064</v>
       </c>
       <c r="D7">
-        <v>0.03546749474057265</v>
+        <v>0.06880687406110297</v>
       </c>
       <c r="E7">
-        <v>1.115628289353467</v>
+        <v>0.06493969891364415</v>
       </c>
       <c r="F7">
-        <v>0.3426064235677373</v>
+        <v>0.5324847859782196</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.005870288097129917</v>
+      </c>
+      <c r="I7">
+        <v>0.009321040024976135</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0.08573720935909535</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4458920549065901</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7862759196318621</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2170761426197458</v>
       </c>
       <c r="O7">
-        <v>0.8914528168469928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.741978326650411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.492429187865412</v>
+        <v>1.056945256548516</v>
       </c>
       <c r="C8">
-        <v>1.054871069334382</v>
+        <v>0.14237429091596</v>
       </c>
       <c r="D8">
-        <v>0.04213710543551485</v>
+        <v>0.07789443427920872</v>
       </c>
       <c r="E8">
-        <v>1.374478723402405</v>
+        <v>0.07344868108665992</v>
       </c>
       <c r="F8">
-        <v>0.3949929088822444</v>
+        <v>0.5602063419955883</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.003696945396398865</v>
+      </c>
+      <c r="I8">
+        <v>0.006660640090749403</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0.07595591676090763</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.447475553146532</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9441273915426791</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.258863044284908</v>
       </c>
       <c r="O8">
-        <v>1.004164627716932</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.780114090516307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.674063522794881</v>
+        <v>1.413841210699644</v>
       </c>
       <c r="C9">
-        <v>1.399735735263619</v>
+        <v>0.1644272652533587</v>
       </c>
       <c r="D9">
-        <v>0.05526100856225469</v>
+        <v>0.09530326492045305</v>
       </c>
       <c r="E9">
-        <v>1.907507807400791</v>
+        <v>0.09023814437626498</v>
       </c>
       <c r="F9">
-        <v>0.5116070724179664</v>
+        <v>0.6217461210239676</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.001014928711904783</v>
+      </c>
+      <c r="I9">
+        <v>0.002931324891788378</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0.06531289568055421</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4551437086907981</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.251997129540172</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3406632420681035</v>
       </c>
       <c r="O9">
-        <v>1.271252654973978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.876889983894245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.550426167245632</v>
+        <v>1.670720591812596</v>
       </c>
       <c r="C10">
-        <v>1.655737624000665</v>
+        <v>0.1833758669567587</v>
       </c>
       <c r="D10">
-        <v>0.06497354724344007</v>
+        <v>0.1095157175948742</v>
       </c>
       <c r="E10">
-        <v>2.322606586173649</v>
+        <v>0.09735946998517164</v>
       </c>
       <c r="F10">
-        <v>0.6082475796837628</v>
+        <v>0.6593426384218759</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.0003604125136020819</v>
+      </c>
+      <c r="I10">
+        <v>0.001660836090195517</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0.06392497095709615</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4537253587809928</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.483431363050101</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.383602143002193</v>
       </c>
       <c r="O10">
-        <v>1.503695879744527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.922383293308513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.951947633293571</v>
+        <v>1.749584638832573</v>
       </c>
       <c r="C11">
-        <v>1.773114414527754</v>
+        <v>0.2149628893356379</v>
       </c>
       <c r="D11">
-        <v>0.06941865122753654</v>
+        <v>0.1281027516653097</v>
       </c>
       <c r="E11">
-        <v>2.518644964101924</v>
+        <v>0.06402535601542603</v>
       </c>
       <c r="F11">
-        <v>0.6552183642140648</v>
+        <v>0.5952952889245751</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.01894998669528292</v>
+      </c>
+      <c r="I11">
+        <v>0.001953699649570595</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0.06499616621396598</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3912692019517614</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.626652952238175</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2650239698567134</v>
       </c>
       <c r="O11">
-        <v>1.619346916535477</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.685176564663465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.104502519388689</v>
+        <v>1.762969419004918</v>
       </c>
       <c r="C12">
-        <v>1.817726501095933</v>
+        <v>0.2404914475754651</v>
       </c>
       <c r="D12">
-        <v>0.07110683455211131</v>
+        <v>0.1414499625825698</v>
       </c>
       <c r="E12">
-        <v>2.594122115875194</v>
+        <v>0.04380049899833516</v>
       </c>
       <c r="F12">
-        <v>0.6734964614842625</v>
+        <v>0.5382722888632543</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.05768952480413958</v>
+      </c>
+      <c r="I12">
+        <v>0.001920337212616197</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0.0656754644916262</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3460322960901223</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.698469478914774</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1748287711449734</v>
       </c>
       <c r="O12">
-        <v>1.664759190403487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.496385537355621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.071622877003563</v>
+        <v>1.724842898212643</v>
       </c>
       <c r="C13">
-        <v>1.808110647279875</v>
+        <v>0.263391208354335</v>
       </c>
       <c r="D13">
-        <v>0.07074301679310935</v>
+        <v>0.1517575744375819</v>
       </c>
       <c r="E13">
-        <v>2.577807938545263</v>
+        <v>0.03209992901408709</v>
       </c>
       <c r="F13">
-        <v>0.6695370910378244</v>
+        <v>0.4802090866283848</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1135626134383472</v>
+      </c>
+      <c r="I13">
+        <v>0.002005313842870393</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0.06551650094165495</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3086528046500234</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.720542953830204</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1019598485744595</v>
       </c>
       <c r="O13">
-        <v>1.654903591291372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.323501420174495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.964487655754453</v>
+        <v>1.674610778424892</v>
       </c>
       <c r="C14">
-        <v>1.776781194522584</v>
+        <v>0.2788194569251488</v>
       </c>
       <c r="D14">
-        <v>0.06955743389187319</v>
+        <v>0.1577277160179449</v>
       </c>
       <c r="E14">
-        <v>2.52482834489733</v>
+        <v>0.02897615977272583</v>
       </c>
       <c r="F14">
-        <v>0.6567119086606823</v>
+        <v>0.4392010711132031</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1630286142613073</v>
+      </c>
+      <c r="I14">
+        <v>0.002221812093597286</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0.0650463914165762</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2864509395526014</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.713789633097178</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0618198863253312</v>
       </c>
       <c r="O14">
-        <v>1.623049407988248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.210555233638672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.898933363028561</v>
+        <v>1.651094539105486</v>
       </c>
       <c r="C15">
-        <v>1.757613370763863</v>
+        <v>0.2819012392312459</v>
       </c>
       <c r="D15">
-        <v>0.06883190475600287</v>
+        <v>0.1584996947725159</v>
       </c>
       <c r="E15">
-        <v>2.492545127573379</v>
+        <v>0.02885074261207721</v>
       </c>
       <c r="F15">
-        <v>0.6489219468152783</v>
+        <v>0.4282130194003884</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1755954483250122</v>
+      </c>
+      <c r="I15">
+        <v>0.002435151749865305</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0.06479498423583152</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2817759021332105</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.701738022707445</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0533513152050844</v>
       </c>
       <c r="O15">
-        <v>1.603754568127329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.183420612518091</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.52425131777261</v>
+        <v>1.548243282840019</v>
       </c>
       <c r="C16">
-        <v>1.648087916885345</v>
+        <v>0.2686111532760833</v>
       </c>
       <c r="D16">
-        <v>0.06468367645886275</v>
+        <v>0.1500168396378712</v>
       </c>
       <c r="E16">
-        <v>2.309956920494358</v>
+        <v>0.02842155822240855</v>
       </c>
       <c r="F16">
-        <v>0.6052433350603366</v>
+        <v>0.4229571125596721</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1631789726069144</v>
+      </c>
+      <c r="I16">
+        <v>0.003054206496675427</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0.06389161983396363</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2890212620768047</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.596858792280159</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05205832872606919</v>
       </c>
       <c r="O16">
-        <v>1.496353217418971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.195546182803085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.295193557993684</v>
+        <v>1.496074313483888</v>
       </c>
       <c r="C17">
-        <v>1.581154682153112</v>
+        <v>0.2500867805528912</v>
       </c>
       <c r="D17">
-        <v>0.06214645325616175</v>
+        <v>0.1403505733236585</v>
       </c>
       <c r="E17">
-        <v>2.19992787908356</v>
+        <v>0.02887049818157328</v>
       </c>
       <c r="F17">
-        <v>0.5792582134362689</v>
+        <v>0.4404699319533663</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1255939574676006</v>
+      </c>
+      <c r="I17">
+        <v>0.003459721718374276</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0.06379305538176183</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3059454565262989</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.520337612501606</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07027773328891129</v>
       </c>
       <c r="O17">
-        <v>1.433134773949007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.263745744401575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.163708394703633</v>
+        <v>1.482156047286281</v>
       </c>
       <c r="C18">
-        <v>1.542740962536698</v>
+        <v>0.2257985592650584</v>
       </c>
       <c r="D18">
-        <v>0.06068956246519264</v>
+        <v>0.1287347151842368</v>
       </c>
       <c r="E18">
-        <v>2.13730660810846</v>
+        <v>0.03461882898146218</v>
       </c>
       <c r="F18">
-        <v>0.5645915646413115</v>
+        <v>0.4820417050958596</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07278221483690572</v>
+      </c>
+      <c r="I18">
+        <v>0.003341151589522973</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0.06389471815723624</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3364249522132639</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.458889179189299</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.117002387977827</v>
       </c>
       <c r="O18">
-        <v>1.39769338140232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.398022707430712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.119232156696398</v>
+        <v>1.497703938859928</v>
       </c>
       <c r="C19">
-        <v>1.529748346110296</v>
+        <v>0.2029165117426146</v>
       </c>
       <c r="D19">
-        <v>0.0601966755275285</v>
+        <v>0.1175625120747412</v>
       </c>
       <c r="E19">
-        <v>2.116212480195927</v>
+        <v>0.05077039278856788</v>
       </c>
       <c r="F19">
-        <v>0.5596719771062908</v>
+        <v>0.5391259011567016</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.02731583040340979</v>
+      </c>
+      <c r="I19">
+        <v>0.003344325700251005</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0.06395550847286202</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3772770731783979</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.416995079838301</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1984228548425619</v>
       </c>
       <c r="O19">
-        <v>1.385846060937496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.576980518736107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.319549286031247</v>
+        <v>1.599619715191267</v>
       </c>
       <c r="C20">
-        <v>1.588270875506566</v>
+        <v>0.1803886581446505</v>
       </c>
       <c r="D20">
-        <v>0.06241628389942377</v>
+        <v>0.1066070052746895</v>
       </c>
       <c r="E20">
-        <v>2.21157049122202</v>
+        <v>0.09462600377659314</v>
       </c>
       <c r="F20">
-        <v>0.5819950625642534</v>
+        <v>0.6429557398594739</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.0004500442124282245</v>
+      </c>
+      <c r="I20">
+        <v>0.002735343267607604</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0.06378695969642223</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4486799402602131</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.426375263736759</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3723138867981248</v>
       </c>
       <c r="O20">
-        <v>1.439767924287452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.889427548449277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.995941274445784</v>
+        <v>1.803657222180533</v>
       </c>
       <c r="C21">
-        <v>1.785978690030845</v>
+        <v>0.1913373476392906</v>
       </c>
       <c r="D21">
-        <v>0.06990552563040353</v>
+        <v>0.1154473129862126</v>
       </c>
       <c r="E21">
-        <v>2.540354249011997</v>
+        <v>0.1078538900516364</v>
       </c>
       <c r="F21">
-        <v>0.6604651419629874</v>
+        <v>0.6884304049744898</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>4.981151066285605E-06</v>
+      </c>
+      <c r="I21">
+        <v>0.001986282451703403</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0.06517680128665759</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4604025722591416</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.597416134335504</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4324722535773162</v>
       </c>
       <c r="O21">
-        <v>1.632360204326687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.977594830781925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.441013048128411</v>
+        <v>1.936400808336856</v>
       </c>
       <c r="C22">
-        <v>1.916165979820562</v>
+        <v>0.1989045372264684</v>
       </c>
       <c r="D22">
-        <v>0.07482945308093747</v>
+        <v>0.1215586004962788</v>
       </c>
       <c r="E22">
-        <v>2.762589365951129</v>
+        <v>0.1142453245426864</v>
       </c>
       <c r="F22">
-        <v>0.7146456245239534</v>
+        <v>0.7164921256983305</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>5.497268123244581E-05</v>
+      </c>
+      <c r="I22">
+        <v>0.00146978687579935</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0.06769601232102573</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4666794402140795</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.710002963313883</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4626173418086523</v>
       </c>
       <c r="O22">
-        <v>1.767765802187569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2.029634225130536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.203159665616056</v>
+        <v>1.86689510062331</v>
       </c>
       <c r="C23">
-        <v>1.846581946035485</v>
+        <v>0.1941289440461702</v>
       </c>
       <c r="D23">
-        <v>0.0721983909784214</v>
+        <v>0.1179990823733235</v>
       </c>
       <c r="E23">
-        <v>2.643229122572066</v>
+        <v>0.1110922156470053</v>
       </c>
       <c r="F23">
-        <v>0.6854423583057354</v>
+        <v>0.7037042846315273</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>5.501421245224236E-06</v>
+      </c>
+      <c r="I23">
+        <v>0.001405623714500592</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0.06619368425963756</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4652126557175862</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.648512290604117</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4462316369848196</v>
       </c>
       <c r="O23">
-        <v>1.694555221844467</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>2.008968701141043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.30853743561164</v>
+        <v>1.601567731659202</v>
       </c>
       <c r="C24">
-        <v>1.585053437871636</v>
+        <v>0.1773756074564972</v>
       </c>
       <c r="D24">
-        <v>0.06229428796034142</v>
+        <v>0.1050212738719551</v>
       </c>
       <c r="E24">
-        <v>2.206304900711544</v>
+        <v>0.09871813240295069</v>
       </c>
       <c r="F24">
-        <v>0.5807568885107273</v>
+        <v>0.6530292659716963</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.0003016345919870655</v>
+      </c>
+      <c r="I24">
+        <v>0.002211434201301543</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0.0637892245366487</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4572023893134869</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.418341230495059</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3848372685632455</v>
       </c>
       <c r="O24">
-        <v>1.436766276362476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.922897121222974</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.353285421662235</v>
+        <v>1.315413640114059</v>
       </c>
       <c r="C25">
-        <v>1.306085055941935</v>
+        <v>0.1594953771431804</v>
       </c>
       <c r="D25">
-        <v>0.05170172861718214</v>
+        <v>0.09102951243252733</v>
       </c>
       <c r="E25">
-        <v>1.759824040063975</v>
+        <v>0.08533185701612567</v>
       </c>
       <c r="F25">
-        <v>0.4783296799336227</v>
+        <v>0.6011931232589518</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.001565392274452737</v>
+      </c>
+      <c r="I25">
+        <v>0.004187825714530469</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0.06715835745996124</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4499175261739659</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.170699901977713</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3189210013731127</v>
       </c>
       <c r="O25">
-        <v>1.193275158560709</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.838186831548427</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.107647599682139</v>
+        <v>1.090952220574678</v>
       </c>
       <c r="C2">
-        <v>0.1447237641865087</v>
+        <v>0.1422555340651002</v>
       </c>
       <c r="D2">
-        <v>0.08001830222816864</v>
+        <v>0.08307919474616199</v>
       </c>
       <c r="E2">
-        <v>0.07603925460307792</v>
+        <v>0.07172009651453592</v>
       </c>
       <c r="F2">
-        <v>0.5706737565464977</v>
+        <v>0.5184665387003307</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.003201276101975847</v>
+        <v>0.002286980618913637</v>
       </c>
       <c r="I2">
-        <v>0.005712501787179747</v>
+        <v>0.00401933896075235</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>0.4503491299861473</v>
+        <v>0.3949319500769874</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1822904124496851</v>
       </c>
       <c r="M2">
-        <v>0.9853008988682177</v>
+        <v>0.1180421072148601</v>
       </c>
       <c r="N2">
-        <v>0.269865220377568</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.013554120734625</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2793698792767145</v>
       </c>
       <c r="Q2">
-        <v>1.800004863265386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.615904067885182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9646960938746361</v>
+        <v>0.9521874309507155</v>
       </c>
       <c r="C3">
-        <v>0.1357075455788745</v>
+        <v>0.1298999601906985</v>
       </c>
       <c r="D3">
-        <v>0.07294105402559126</v>
+        <v>0.07486704042557335</v>
       </c>
       <c r="E3">
-        <v>0.06933426162987644</v>
+        <v>0.0658312653568025</v>
       </c>
       <c r="F3">
-        <v>0.5479892289628552</v>
+        <v>0.5016004079437906</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.004726994964480091</v>
+        <v>0.003509823581333338</v>
       </c>
       <c r="I3">
-        <v>0.007626399553984697</v>
+        <v>0.005425724515305763</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>0.4485142484981388</v>
+        <v>0.3971423529156155</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1868867507787648</v>
       </c>
       <c r="M3">
-        <v>0.8615449581235168</v>
+        <v>0.1165886810162657</v>
       </c>
       <c r="N3">
-        <v>0.2370674877178089</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8849348020031869</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2457399150095654</v>
       </c>
       <c r="Q3">
-        <v>1.767263221145825</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.600794561930343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8766865896846525</v>
+        <v>0.866650038489297</v>
       </c>
       <c r="C4">
-        <v>0.1301922910992346</v>
+        <v>0.1224146752189128</v>
       </c>
       <c r="D4">
-        <v>0.06859450128302313</v>
+        <v>0.06984235529865401</v>
       </c>
       <c r="E4">
-        <v>0.06517936353683851</v>
+        <v>0.06216928555419621</v>
       </c>
       <c r="F4">
-        <v>0.5344994819942954</v>
+        <v>0.4915867291391294</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.005853381496581267</v>
+        <v>0.004425098076497713</v>
       </c>
       <c r="I4">
-        <v>0.009030267939448944</v>
+        <v>0.006483501789757096</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>0.4475785704138353</v>
+        <v>0.3986247884930023</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1897568599776136</v>
       </c>
       <c r="M4">
-        <v>0.7855641412690488</v>
+        <v>0.1162531663762003</v>
       </c>
       <c r="N4">
-        <v>0.2169519931141508</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8060060222626362</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2251236343246603</v>
       </c>
       <c r="Q4">
-        <v>1.748433911290959</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.592513181935445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8404338352642071</v>
+        <v>0.8313934458560652</v>
       </c>
       <c r="C5">
-        <v>0.1281162218222462</v>
+        <v>0.1195846531654325</v>
       </c>
       <c r="D5">
-        <v>0.06689233462224564</v>
+        <v>0.06786997870990064</v>
       </c>
       <c r="E5">
-        <v>0.06341173189030691</v>
+        <v>0.06060481842161813</v>
       </c>
       <c r="F5">
-        <v>0.5285279097719524</v>
+        <v>0.4870539536153444</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006361500931538921</v>
+        <v>0.00484060931671465</v>
       </c>
       <c r="I5">
-        <v>0.009741109288933902</v>
+        <v>0.007056387961738686</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>0.4467405890732614</v>
+        <v>0.3988159666747144</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1907213519266122</v>
       </c>
       <c r="M5">
-        <v>0.7549317550742245</v>
+        <v>0.1161399268706358</v>
       </c>
       <c r="N5">
-        <v>0.2088279574493583</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7741743172075815</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2167959387126217</v>
       </c>
       <c r="Q5">
-        <v>1.739168993928203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.587653974791692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8340127031329132</v>
+        <v>0.8251517253816303</v>
       </c>
       <c r="C6">
-        <v>0.1279789719266304</v>
+        <v>0.1193592924291096</v>
       </c>
       <c r="D6">
-        <v>0.06669539799764124</v>
+        <v>0.06763027508821295</v>
       </c>
       <c r="E6">
-        <v>0.06303865594937896</v>
+        <v>0.06027062551636497</v>
       </c>
       <c r="F6">
-        <v>0.5268341572043695</v>
+        <v>0.4856541977035675</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006452623941815949</v>
+        <v>0.004915397141161015</v>
       </c>
       <c r="I6">
-        <v>0.0099715785381429</v>
+        <v>0.00727894070735946</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>0.4459899980509299</v>
+        <v>0.3983090202059323</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1906181082142382</v>
       </c>
       <c r="M6">
-        <v>0.7502554814156639</v>
+        <v>0.1159875629066924</v>
       </c>
       <c r="N6">
-        <v>0.2075644396549308</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7692894223227995</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2154959041779847</v>
       </c>
       <c r="Q6">
-        <v>1.735328473233167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.584757053219647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8751082878404475</v>
+        <v>0.8651281961614927</v>
       </c>
       <c r="C7">
-        <v>0.1307323853720064</v>
+        <v>0.1230473350109875</v>
       </c>
       <c r="D7">
-        <v>0.06880687406110297</v>
+        <v>0.07005652906018867</v>
       </c>
       <c r="E7">
-        <v>0.06493969891364415</v>
+        <v>0.06194713267590224</v>
       </c>
       <c r="F7">
-        <v>0.5324847859782196</v>
+        <v>0.4897495284516467</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.005870288097129917</v>
+        <v>0.004439221664574444</v>
       </c>
       <c r="I7">
-        <v>0.009321040024976135</v>
+        <v>0.006812362664705418</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>0.4458920549065901</v>
+        <v>0.3971594464624175</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.189069935412121</v>
       </c>
       <c r="M7">
-        <v>0.7862759196318621</v>
+        <v>0.1158480562892681</v>
       </c>
       <c r="N7">
-        <v>0.2170761426197458</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8066745093253473</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2252372945141303</v>
       </c>
       <c r="Q7">
-        <v>1.741978326650411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.58672296478656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.056945256548516</v>
+        <v>1.041774980250153</v>
       </c>
       <c r="C8">
-        <v>0.14237429091596</v>
+        <v>0.1388925972024211</v>
       </c>
       <c r="D8">
-        <v>0.07789443427920872</v>
+        <v>0.08056926814554544</v>
       </c>
       <c r="E8">
-        <v>0.07344868108665992</v>
+        <v>0.06943378311967052</v>
       </c>
       <c r="F8">
-        <v>0.5602063419955883</v>
+        <v>0.5102495016851876</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.003696945396398865</v>
+        <v>0.002681836257875436</v>
       </c>
       <c r="I8">
-        <v>0.006660640090749403</v>
+        <v>0.004850199337682604</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>0.447475553146532</v>
+        <v>0.3937647324051916</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1830291457326254</v>
       </c>
       <c r="M8">
-        <v>0.9441273915426791</v>
+        <v>0.1168309216888996</v>
       </c>
       <c r="N8">
-        <v>0.258863044284908</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9706625561517797</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2680689872600084</v>
       </c>
       <c r="Q8">
-        <v>1.780114090516307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.603014589468373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.413841210699644</v>
+        <v>1.38758123792033</v>
       </c>
       <c r="C9">
-        <v>0.1644272652533587</v>
+        <v>0.1696380682168126</v>
       </c>
       <c r="D9">
-        <v>0.09530326492045305</v>
+        <v>0.1009106354799769</v>
       </c>
       <c r="E9">
-        <v>0.09023814437626498</v>
+        <v>0.08412098595036355</v>
       </c>
       <c r="F9">
-        <v>0.6217461210239676</v>
+        <v>0.5565324113456285</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.001014928711904783</v>
+        <v>0.0006072200785671722</v>
       </c>
       <c r="I9">
-        <v>0.002931324891788378</v>
+        <v>0.002135256556575094</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.4551437086907981</v>
+        <v>0.3907294791733555</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1726700085386597</v>
       </c>
       <c r="M9">
-        <v>1.251997129540172</v>
+        <v>0.1240399855669416</v>
       </c>
       <c r="N9">
-        <v>0.3406632420681035</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.290882998294222</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.352002829315083</v>
       </c>
       <c r="Q9">
-        <v>1.876889983894245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.653503113156319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.670720591812596</v>
+        <v>1.63644718812759</v>
       </c>
       <c r="C10">
-        <v>0.1833758669567587</v>
+        <v>0.1956679582713292</v>
       </c>
       <c r="D10">
-        <v>0.1095157175948742</v>
+        <v>0.1173206868486716</v>
       </c>
       <c r="E10">
-        <v>0.09735946998517164</v>
+        <v>0.09002665824666778</v>
       </c>
       <c r="F10">
-        <v>0.6593426384218759</v>
+        <v>0.5841444908748201</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0003604125136020819</v>
+        <v>0.0002387436186390701</v>
       </c>
       <c r="I10">
-        <v>0.001660836090195517</v>
+        <v>0.001422716318716155</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.4537253587809928</v>
+        <v>0.3830100771507894</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1631162129689869</v>
       </c>
       <c r="M10">
-        <v>1.483431363050101</v>
+        <v>0.1296029171014901</v>
       </c>
       <c r="N10">
-        <v>0.383602143002193</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.530902629972928</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3961353066965358</v>
       </c>
       <c r="Q10">
-        <v>1.922383293308513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.66978257891185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.749584638832573</v>
+        <v>1.717637596540698</v>
       </c>
       <c r="C11">
-        <v>0.2149628893356379</v>
+        <v>0.2316382241939152</v>
       </c>
       <c r="D11">
-        <v>0.1281027516653097</v>
+        <v>0.1363173227620393</v>
       </c>
       <c r="E11">
-        <v>0.06402535601542603</v>
+        <v>0.05912850860619656</v>
       </c>
       <c r="F11">
-        <v>0.5952952889245751</v>
+        <v>0.5296064042708366</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01894998669528292</v>
+        <v>0.01882160320831261</v>
       </c>
       <c r="I11">
-        <v>0.001953699649570595</v>
+        <v>0.001930882324702843</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.3912692019517614</v>
+        <v>0.3326227593197011</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1430113718107258</v>
       </c>
       <c r="M11">
-        <v>1.626652952238175</v>
+        <v>0.1130892964544508</v>
       </c>
       <c r="N11">
-        <v>0.2650239698567134</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.672561519845829</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2748093286305959</v>
       </c>
       <c r="Q11">
-        <v>1.685176564663465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.469281423237163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.762969419004918</v>
+        <v>1.73475491663109</v>
       </c>
       <c r="C12">
-        <v>0.2404914475754651</v>
+        <v>0.2581904437718237</v>
       </c>
       <c r="D12">
-        <v>0.1414499625825698</v>
+        <v>0.1493509997454225</v>
       </c>
       <c r="E12">
-        <v>0.04380049899833516</v>
+        <v>0.0408584983799809</v>
       </c>
       <c r="F12">
-        <v>0.5382722888632543</v>
+        <v>0.4819022443689676</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05768952480413958</v>
+        <v>0.05753436316592087</v>
       </c>
       <c r="I12">
-        <v>0.001920337212616197</v>
+        <v>0.001911001172229199</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.3460322960901223</v>
+        <v>0.2974737003106505</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1305595885847453</v>
       </c>
       <c r="M12">
-        <v>1.698469478914774</v>
+        <v>0.09964190868526046</v>
       </c>
       <c r="N12">
-        <v>0.1748287711449734</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.740946530249943</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1823315554407756</v>
       </c>
       <c r="Q12">
-        <v>1.496385537355621</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.313913756843831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.724842898212643</v>
+        <v>1.701713947178604</v>
       </c>
       <c r="C13">
-        <v>0.263391208354335</v>
+        <v>0.2796929335123508</v>
       </c>
       <c r="D13">
-        <v>0.1517575744375819</v>
+        <v>0.1587706603632313</v>
       </c>
       <c r="E13">
-        <v>0.03209992901408709</v>
+        <v>0.03080538456855519</v>
       </c>
       <c r="F13">
-        <v>0.4802090866283848</v>
+        <v>0.4337291238627614</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1135626134383472</v>
+        <v>0.1133562058810611</v>
       </c>
       <c r="I13">
-        <v>0.002005313842870393</v>
+        <v>0.00192821745382421</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>0.3086528046500234</v>
+        <v>0.2694679905932453</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1216666064200886</v>
       </c>
       <c r="M13">
-        <v>1.720542953830204</v>
+        <v>0.08731217279824577</v>
       </c>
       <c r="N13">
-        <v>0.1019598485744595</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.75792805379632</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1074270645127271</v>
       </c>
       <c r="Q13">
-        <v>1.323501420174495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.174520757364505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.674610778424892</v>
+        <v>1.655629972471417</v>
       </c>
       <c r="C14">
-        <v>0.2788194569251488</v>
+        <v>0.292915799065554</v>
       </c>
       <c r="D14">
-        <v>0.1577277160179449</v>
+        <v>0.1638372596447653</v>
       </c>
       <c r="E14">
-        <v>0.02897615977272583</v>
+        <v>0.02861194376833676</v>
       </c>
       <c r="F14">
-        <v>0.4392010711132031</v>
+        <v>0.3997567549275303</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1630286142613073</v>
+        <v>0.1627738976846729</v>
       </c>
       <c r="I14">
-        <v>0.002221812093597286</v>
+        <v>0.002071887069514666</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.2864509395526014</v>
+        <v>0.2532862467124701</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1168611679711313</v>
       </c>
       <c r="M14">
-        <v>1.713789633097178</v>
+        <v>0.07952916948888067</v>
       </c>
       <c r="N14">
-        <v>0.0618198863253312</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.74683739758197</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.06603684997153891</v>
       </c>
       <c r="Q14">
-        <v>1.210555233638672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.084432276994235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.651094539105486</v>
+        <v>1.633398408563238</v>
       </c>
       <c r="C15">
-        <v>0.2819012392312459</v>
+        <v>0.2950778335013382</v>
       </c>
       <c r="D15">
-        <v>0.1584996947725159</v>
+        <v>0.1642891361735934</v>
       </c>
       <c r="E15">
-        <v>0.02885074261207721</v>
+        <v>0.02868116655927189</v>
       </c>
       <c r="F15">
-        <v>0.4282130194003884</v>
+        <v>0.3906901425391069</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1755954483250122</v>
+        <v>0.1753179039001083</v>
       </c>
       <c r="I15">
-        <v>0.002435151749865305</v>
+        <v>0.002268263144902249</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.2817759021332105</v>
+        <v>0.250080724443885</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1160203374855628</v>
       </c>
       <c r="M15">
-        <v>1.701738022707445</v>
+        <v>0.07771837321875452</v>
       </c>
       <c r="N15">
-        <v>0.0533513152050844</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.733413116328052</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.05728601268968703</v>
       </c>
       <c r="Q15">
-        <v>1.183420612518091</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.063279056444316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.548243282840019</v>
+        <v>1.532874725276116</v>
       </c>
       <c r="C16">
-        <v>0.2686111532760833</v>
+        <v>0.2787257563114451</v>
       </c>
       <c r="D16">
-        <v>0.1500168396378712</v>
+        <v>0.1550056945537364</v>
       </c>
       <c r="E16">
-        <v>0.02842155822240855</v>
+        <v>0.02820887677876982</v>
       </c>
       <c r="F16">
-        <v>0.4229571125596721</v>
+        <v>0.3873562624421254</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1631789726069144</v>
+        <v>0.1627768326630701</v>
       </c>
       <c r="I16">
-        <v>0.003054206496675427</v>
+        <v>0.002702081573176862</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.2890212620768047</v>
+        <v>0.2576194861576813</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1194699148926439</v>
       </c>
       <c r="M16">
-        <v>1.596858792280159</v>
+        <v>0.07872764810241684</v>
       </c>
       <c r="N16">
-        <v>0.05205832872606919</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.625932662093561</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.0559990643499404</v>
       </c>
       <c r="Q16">
-        <v>1.195546182803085</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.079679218010043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.496074313483888</v>
+        <v>1.480297461601936</v>
       </c>
       <c r="C17">
-        <v>0.2500867805528912</v>
+        <v>0.2592028712868739</v>
       </c>
       <c r="D17">
-        <v>0.1403505733236585</v>
+        <v>0.1452318680755411</v>
       </c>
       <c r="E17">
-        <v>0.02887049818157328</v>
+        <v>0.02821501705300225</v>
       </c>
       <c r="F17">
-        <v>0.4404699319533663</v>
+        <v>0.4027583063555653</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1255939574676006</v>
+        <v>0.1251188889626604</v>
       </c>
       <c r="I17">
-        <v>0.003459721718374276</v>
+        <v>0.003003045643206192</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234428</v>
       </c>
       <c r="K17">
-        <v>0.3059454565262989</v>
+        <v>0.271814285399488</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1250187956625926</v>
       </c>
       <c r="M17">
-        <v>1.520337612501606</v>
+        <v>0.08325056048075297</v>
       </c>
       <c r="N17">
-        <v>0.07027773328891129</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.549737054356996</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.07483551483922213</v>
       </c>
       <c r="Q17">
-        <v>1.263745744401575</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.13967788898394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.482156047286281</v>
+        <v>1.4636006955065</v>
       </c>
       <c r="C18">
-        <v>0.2257985592650584</v>
+        <v>0.2350529349634911</v>
       </c>
       <c r="D18">
-        <v>0.1287347151842368</v>
+        <v>0.1340068943377446</v>
       </c>
       <c r="E18">
-        <v>0.03461882898146218</v>
+        <v>0.03295195429652509</v>
       </c>
       <c r="F18">
-        <v>0.4820417050958596</v>
+        <v>0.4381142945486474</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07278221483690572</v>
+        <v>0.07229682083274724</v>
       </c>
       <c r="I18">
-        <v>0.003341151589522973</v>
+        <v>0.002805746325265979</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.0759585914630927</v>
       </c>
       <c r="K18">
-        <v>0.3364249522132639</v>
+        <v>0.2959838752211219</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1341678272896889</v>
       </c>
       <c r="M18">
-        <v>1.458889179189299</v>
+        <v>0.09199177900994471</v>
       </c>
       <c r="N18">
-        <v>0.117002387977827</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.491060842466794</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1229257388352565</v>
       </c>
       <c r="Q18">
-        <v>1.398022707430712</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.252311268387089</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.497703938859928</v>
+        <v>1.474770467026048</v>
       </c>
       <c r="C19">
-        <v>0.2029165117426146</v>
+        <v>0.2126515455455404</v>
       </c>
       <c r="D19">
-        <v>0.1175625120747412</v>
+        <v>0.1234783369910843</v>
       </c>
       <c r="E19">
-        <v>0.05077039278856788</v>
+        <v>0.04743212035277367</v>
       </c>
       <c r="F19">
-        <v>0.5391259011567016</v>
+        <v>0.4858292636389479</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02731583040340979</v>
+        <v>0.02689325885994975</v>
       </c>
       <c r="I19">
-        <v>0.003344325700251005</v>
+        <v>0.002874562047509244</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>0.3772770731783979</v>
+        <v>0.3274900432773187</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1459090708612454</v>
       </c>
       <c r="M19">
-        <v>1.416995079838301</v>
+        <v>0.1038778208975035</v>
       </c>
       <c r="N19">
-        <v>0.1984228548425619</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.453471781167082</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2064563711700202</v>
       </c>
       <c r="Q19">
-        <v>1.576980518736107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.398834830498174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.599619715191267</v>
+        <v>1.56767909464304</v>
       </c>
       <c r="C20">
-        <v>0.1803886581446505</v>
+        <v>0.1912351816735764</v>
       </c>
       <c r="D20">
-        <v>0.1066070052746895</v>
+        <v>0.1138546637155855</v>
       </c>
       <c r="E20">
-        <v>0.09462600377659314</v>
+        <v>0.08768342082668568</v>
       </c>
       <c r="F20">
-        <v>0.6429557398594739</v>
+        <v>0.5710681092964407</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0004500442124282245</v>
+        <v>0.0002597999959403907</v>
       </c>
       <c r="I20">
-        <v>0.002735343267607604</v>
+        <v>0.00251587655504526</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835614</v>
       </c>
       <c r="K20">
-        <v>0.4486799402602131</v>
+        <v>0.3805078302061844</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1639578534669432</v>
       </c>
       <c r="M20">
-        <v>1.426375263736759</v>
+        <v>0.1262362149403877</v>
       </c>
       <c r="N20">
-        <v>0.3723138867981248</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.471490713987095</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3844959556319765</v>
       </c>
       <c r="Q20">
-        <v>1.889427548449277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.647114139123516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.803657222180533</v>
+        <v>1.764286037038573</v>
       </c>
       <c r="C21">
-        <v>0.1913373476392906</v>
+        <v>0.2074505277128225</v>
       </c>
       <c r="D21">
-        <v>0.1154473129862126</v>
+        <v>0.1244997559050063</v>
       </c>
       <c r="E21">
-        <v>0.1078538900516364</v>
+        <v>0.09939143257021499</v>
       </c>
       <c r="F21">
-        <v>0.6884304049744898</v>
+        <v>0.6060776532070378</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.981151066285605E-06</v>
+        <v>9.674056372643847E-06</v>
       </c>
       <c r="I21">
-        <v>0.001986282451703403</v>
+        <v>0.002112563035244541</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>0.4604025722591416</v>
+        <v>0.3844335091631415</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1602548877472856</v>
       </c>
       <c r="M21">
-        <v>1.597416134335504</v>
+        <v>0.135073129611154</v>
       </c>
       <c r="N21">
-        <v>0.4324722535773162</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.650091600628855</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4462001316593529</v>
       </c>
       <c r="Q21">
-        <v>1.977594830781925</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.702937179346577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.936400808336856</v>
+        <v>1.892319676365076</v>
       </c>
       <c r="C22">
-        <v>0.1989045372264684</v>
+        <v>0.2184335245609077</v>
       </c>
       <c r="D22">
-        <v>0.1215586004962788</v>
+        <v>0.1317650940094239</v>
       </c>
       <c r="E22">
-        <v>0.1142453245426864</v>
+        <v>0.1049375073167838</v>
       </c>
       <c r="F22">
-        <v>0.7164921256983305</v>
+        <v>0.6277616991731279</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5.497268123244581E-05</v>
+        <v>0.0001474492004700512</v>
       </c>
       <c r="I22">
-        <v>0.00146978687579935</v>
+        <v>0.001707530838746862</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>0.4666794402140795</v>
+        <v>0.386080714802695</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.157432213479467</v>
       </c>
       <c r="M22">
-        <v>1.710002963313883</v>
+        <v>0.1410053747696089</v>
       </c>
       <c r="N22">
-        <v>0.4626173418086523</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.767348919304737</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4771615574780981</v>
       </c>
       <c r="Q22">
-        <v>2.029634225130536</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.73548659107135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.86689510062331</v>
+        <v>1.825275949256991</v>
       </c>
       <c r="C23">
-        <v>0.1941289440461702</v>
+        <v>0.2116457178163529</v>
       </c>
       <c r="D23">
-        <v>0.1179990823733235</v>
+        <v>0.1275756089091118</v>
       </c>
       <c r="E23">
-        <v>0.1110922156470053</v>
+        <v>0.1022139331295655</v>
       </c>
       <c r="F23">
-        <v>0.7037042846315273</v>
+        <v>0.6181536044330542</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5.501421245224236E-06</v>
+        <v>5.473149425561097E-05</v>
       </c>
       <c r="I23">
-        <v>0.001405623714500592</v>
+        <v>0.001528042296919274</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>0.4652126557175862</v>
+        <v>0.3867718984975816</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1594661736790322</v>
       </c>
       <c r="M23">
-        <v>1.648512290604117</v>
+        <v>0.1384529069703468</v>
       </c>
       <c r="N23">
-        <v>0.4462316369848196</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.703390523919467</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4603478133101788</v>
       </c>
       <c r="Q23">
-        <v>2.008968701141043</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.724339405747685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.601567731659202</v>
+        <v>1.569116012992538</v>
       </c>
       <c r="C24">
-        <v>0.1773756074564972</v>
+        <v>0.1877525631190338</v>
       </c>
       <c r="D24">
-        <v>0.1050212738719551</v>
+        <v>0.1122695936833722</v>
       </c>
       <c r="E24">
-        <v>0.09871813240295069</v>
+        <v>0.09148201095554498</v>
       </c>
       <c r="F24">
-        <v>0.6530292659716963</v>
+        <v>0.5796771111705397</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0003016345919870655</v>
+        <v>0.0001224331347546848</v>
       </c>
       <c r="I24">
-        <v>0.002211434201301543</v>
+        <v>0.001899214399732507</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555361169</v>
       </c>
       <c r="K24">
-        <v>0.4572023893134869</v>
+        <v>0.3873058374855525</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1664971279226002</v>
       </c>
       <c r="M24">
-        <v>1.418341230495059</v>
+        <v>0.1287894075821612</v>
       </c>
       <c r="N24">
-        <v>0.3848372685632455</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.463850828538995</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3973228741289176</v>
       </c>
       <c r="Q24">
-        <v>1.922897121222974</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.675157902737539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.315413640114059</v>
+        <v>1.29233823174377</v>
       </c>
       <c r="C25">
-        <v>0.1594953771431804</v>
+        <v>0.1625192530717072</v>
       </c>
       <c r="D25">
-        <v>0.09102951243252733</v>
+        <v>0.09584237914995697</v>
       </c>
       <c r="E25">
-        <v>0.08533185701612567</v>
+        <v>0.07982253521819516</v>
       </c>
       <c r="F25">
-        <v>0.6011931232589518</v>
+        <v>0.5405233013685589</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.001565392274452737</v>
+        <v>0.001015692786164313</v>
       </c>
       <c r="I25">
-        <v>0.004187825714530469</v>
+        <v>0.00322938129167305</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.4499175261739659</v>
+        <v>0.3888998286042984</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1744305265081962</v>
       </c>
       <c r="M25">
-        <v>1.170699901977713</v>
+        <v>0.1207055788449019</v>
       </c>
       <c r="N25">
-        <v>0.3189210013731127</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.206176892337453</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3296643730654267</v>
       </c>
       <c r="Q25">
-        <v>1.838186831548427</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.628846793941051</v>
       </c>
     </row>
   </sheetData>
